--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_5/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_5/out_of_sample/additive/ranking_test3/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.445</v>
+        <v>-0.133</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.346</v>
+        <v>28.309</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.456</v>
+        <v>-0.047</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.754</v>
+        <v>27.396</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.551</v>
+        <v>-0.026</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.385</v>
+        <v>27.778</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>9.95919521944535</v>
+        <v>28.37213811445165</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>20.43444372793571</v>
+        <v>28.37213814500641</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>26.64905295321258</v>
+        <v>28.3721381558087</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.5650643880886683</v>
+        <v>28.37213811202291</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>21.15253306352857</v>
+        <v>28.37213814686383</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>25.23447967118067</v>
+        <v>28.37213815714704</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4.698003071994517</v>
+        <v>28.37213811568092</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>33.37920770915222</v>
+        <v>28.37213815259853</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>37.61974471568253</v>
+        <v>28.37213816240013</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28.86223666995156</v>
+        <v>28.37213816262628</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>33.70454681538673</v>
+        <v>28.37213817570842</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>37.24917124641035</v>
+        <v>28.37213817919908</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>9.378078041940647</v>
+        <v>28.37213813555009</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>24.24931665996528</v>
+        <v>28.37213816877308</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>31.57514930546206</v>
+        <v>28.37213817868736</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>17.01259719327975</v>
+        <v>28.37213816962592</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>32.61165788992086</v>
+        <v>28.37213820591465</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>37.62392059815289</v>
+        <v>28.37213821846653</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2.966677049539375</v>
+        <v>28.37213816422056</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>20.76784294277327</v>
+        <v>28.37213820279678</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>27.23329043746137</v>
+        <v>28.37213821627077</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4.991091937528342</v>
+        <v>28.37213817320187</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>35.4099353246892</v>
+        <v>28.3721382154815</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>8.975126923724627</v>
+        <v>28.37213812787632</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>22.29048977263304</v>
+        <v>28.37213816035255</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>28.18053580733551</v>
+        <v>28.37213817102828</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2.26724173377747</v>
+        <v>28.37213812695402</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>27.00659309263802</v>
+        <v>28.37213816419108</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>31.03494013321107</v>
+        <v>28.37213817446562</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>7.205569035412648</v>
+        <v>28.37213813163189</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>39.877587287329</v>
+        <v>28.3721381708317</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>43.67324728256105</v>
+        <v>28.3721381805149</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>38.9946077110983</v>
+        <v>28.37213818072856</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>43.65032789271386</v>
+        <v>28.37213819397761</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>47.48864141466543</v>
+        <v>28.37213819756956</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>14.85153513074846</v>
+        <v>28.3721381513127</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>34.46537610473943</v>
+        <v>28.37213818670066</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>41.1443613789992</v>
+        <v>28.37213819624228</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>17.51476336838174</v>
+        <v>28.372138187529</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>36.58181002336713</v>
+        <v>28.37213822607545</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>41.50045444165123</v>
+        <v>28.37213823854005</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>7.321850972475273</v>
+        <v>28.37213818391506</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>30.12522011409152</v>
+        <v>28.37213822530543</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>36.7757501520725</v>
+        <v>28.37213823891362</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>10.17929334029957</v>
+        <v>28.37213819416068</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>45.54679938219058</v>
+        <v>28.37213823910583</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>11.52139005413104</v>
+        <v>28.37213813062699</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>25.30850529012397</v>
+        <v>28.37213816308414</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>31.32652911243829</v>
+        <v>28.37213817368806</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6.11242135716115</v>
+        <v>28.37213813027478</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>31.43497315478289</v>
+        <v>28.37213816749121</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>35.62539329250759</v>
+        <v>28.37213817774059</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>11.35932941073505</v>
+        <v>28.37213813501166</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>44.54962141617214</v>
+        <v>28.37213817417204</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>48.48647040241277</v>
+        <v>28.37213818378749</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>43.94678974285965</v>
+        <v>28.37213818389502</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>48.48853802462126</v>
+        <v>28.37213819697715</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>52.60951497787127</v>
+        <v>28.37213820061436</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>18.55343002481288</v>
+        <v>28.37213815426638</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>39.03850030215283</v>
+        <v>28.3721381897912</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>45.76630782758546</v>
+        <v>28.37213819917013</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>20.34350153780746</v>
+        <v>28.3721381901719</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>39.9842209056018</v>
+        <v>28.37213822869053</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>45.03051495377436</v>
+        <v>28.37213824108211</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>11.47138748234672</v>
+        <v>28.37213818715677</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>35.06890716450931</v>
+        <v>28.37213822851711</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>41.90465760786123</v>
+        <v>28.3721382421379</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>14.68479706653156</v>
+        <v>28.37213819743872</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>50.74187052228614</v>
+        <v>28.37213824234642</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>-16.76048068368372</v>
+        <v>28.37213812215741</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>-4.330380429243677</v>
+        <v>28.37213815334915</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1.846148613825279</v>
+        <v>28.37213816418639</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-25.66677864036042</v>
+        <v>28.37213812143062</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>-2.095305943333436</v>
+        <v>28.37213815708588</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>2.091766545823346</v>
+        <v>28.3721381675644</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-22.3480637344009</v>
+        <v>28.37213812543188</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>9.34256995692443</v>
+        <v>28.37213816310885</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>13.45121650553783</v>
+        <v>28.37213817294956</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>9.470160927723434</v>
+        <v>28.37213817280035</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>14.31028025213968</v>
+        <v>28.37213818572631</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>18.09345314159558</v>
+        <v>28.37213818939813</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-12.73684047390238</v>
+        <v>28.37213814452253</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>5.366412930689567</v>
+        <v>28.37213817892584</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>12.45687913876682</v>
+        <v>28.37213818859963</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>-10.48218911996977</v>
+        <v>28.37213817882441</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>7.599742566832729</v>
+        <v>28.37213821586102</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>12.69619676560179</v>
+        <v>28.37213822852456</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-23.49393644907239</v>
+        <v>28.3721381752374</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>-2.171445167895631</v>
+        <v>28.37213821473521</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>4.604808226620678</v>
+        <v>28.37213822861651</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-22.43338683358981</v>
+        <v>28.37213818462992</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>11.66748671038205</v>
+        <v>28.37213822782895</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>43.13364434311431</v>
+        <v>28.37213822761098</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>33.26628485544759</v>
+        <v>28.37213822218735</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>44.17204414098692</v>
+        <v>28.37213823933168</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>47.88376313544955</v>
+        <v>28.37213824364257</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>12.01488181104552</v>
+        <v>28.3721381892348</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>35.43632651225067</v>
+        <v>28.37213823033354</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>42.04032163341572</v>
+        <v>28.37213824160935</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>18.85700930679548</v>
+        <v>28.3721382023168</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>35.89903380968681</v>
+        <v>28.3721382395265</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>43.50991212316757</v>
+        <v>28.37213825194924</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>2.712322142767931</v>
+        <v>28.37213819873736</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>26.0403655106755</v>
+        <v>28.37213823857875</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>31.52735833452769</v>
+        <v>28.37213825187419</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>9.072357025217853</v>
+        <v>28.37213820961506</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>44.78040555925084</v>
+        <v>28.3721382530063</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>54.41275416893708</v>
+        <v>28.37213826508027</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>49.08110444204356</v>
+        <v>28.37213825928377</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>57.60086503019679</v>
+        <v>28.3721382755175</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>64.02997056405738</v>
+        <v>28.37213827923809</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>15.27525918141957</v>
+        <v>28.3721382242805</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>47.48020408913276</v>
+        <v>28.37213826501147</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>53.969873057783</v>
+        <v>28.37213827701413</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>53.23763058093814</v>
+        <v>28.37213825121461</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>46.5628742358588</v>
+        <v>28.37213824501123</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>56.79413458581135</v>
+        <v>28.37213826218873</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>60.9760281544136</v>
+        <v>28.37213826660594</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>20.3580026748806</v>
+        <v>28.37213820960568</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>49.56109670846546</v>
+        <v>28.37213825329246</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>55.79161844903324</v>
+        <v>28.37213826418986</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>22.89758801744728</v>
+        <v>28.37213822212653</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>43.76851530075736</v>
+        <v>28.37213826166947</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>50.95297318765599</v>
+        <v>28.37213827391672</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>10.69001602549972</v>
+        <v>28.37213822040627</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>39.5765693696808</v>
+        <v>28.372138263174</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>44.89822330501396</v>
+        <v>28.37213827652661</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>18.34030677533495</v>
+        <v>28.37213823262984</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>59.50988290926334</v>
+        <v>28.37213827881617</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>68.5301775153571</v>
+        <v>28.37213829072711</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>67.04300521602585</v>
+        <v>28.37213828409728</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>74.91543904302046</v>
+        <v>28.37213830038544</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>81.4883316520193</v>
+        <v>28.37213830413576</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>28.00034120681511</v>
+        <v>28.3721382467296</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>66.21331452447821</v>
+        <v>28.37213828999787</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>72.01335416136158</v>
+        <v>28.37213830153424</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>58.61443478700423</v>
+        <v>28.37213825438984</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>51.68694380011402</v>
+        <v>28.37213824797146</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>61.65583912093595</v>
+        <v>28.37213826490866</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>66.23554216505427</v>
+        <v>28.37213826937046</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>24.44727319072535</v>
+        <v>28.37213821244812</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>54.74391554879399</v>
+        <v>28.37213825625633</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>61.00753386529664</v>
+        <v>28.37213826697724</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>26.17262017651163</v>
+        <v>28.37213822490267</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>47.67178227213485</v>
+        <v>28.37213826447106</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>54.92363862461175</v>
+        <v>28.37213827660856</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>15.50285133452236</v>
+        <v>28.3721382238035</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>45.26877026745246</v>
+        <v>28.37213826660455</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>50.69553185571688</v>
+        <v>28.3721382799176</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>23.50139084487671</v>
+        <v>28.37213823605761</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>65.43429094011877</v>
+        <v>28.37213828225239</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>74.51670303619687</v>
+        <v>28.37213829405465</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>72.90508509570446</v>
+        <v>28.37213828721844</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>80.6180442624412</v>
+        <v>28.37213830329639</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>87.43554176030152</v>
+        <v>28.37213830705835</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>32.76516246465714</v>
+        <v>28.37213824967622</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>72.0840735529148</v>
+        <v>28.37213829311517</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>77.88198927012992</v>
+        <v>28.37213830444885</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>19.59837396051913</v>
+        <v>28.37213824006916</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>13.97801032875825</v>
+        <v>28.37213823372734</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>24.66939751218569</v>
+        <v>28.37213825053844</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>28.80096591215419</v>
+        <v>28.37213825504983</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>-10.20142050703465</v>
+        <v>28.37213819973458</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>17.36696480029388</v>
+        <v>28.37213824221263</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>23.85953418566153</v>
+        <v>28.37213825320632</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>-6.119506576848567</v>
+        <v>28.37213821315708</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>13.65980572926909</v>
+        <v>28.37213825129765</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>21.18293012643359</v>
+        <v>28.37213826371691</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-21.09660487915044</v>
+        <v>28.37213821148331</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>6.215445145212717</v>
+        <v>28.3721382524612</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>11.74165800281129</v>
+        <v>28.3721382660152</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>-15.34884523921024</v>
+        <v>28.37213822284772</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>24.47530626917314</v>
+        <v>28.37213826734155</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>33.95419766590916</v>
+        <v>28.37213827938634</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>33.34164616178954</v>
+        <v>28.37213827268546</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>41.58931320247272</v>
+        <v>28.37213828864914</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>48.22771081377341</v>
+        <v>28.37213829246699</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>-3.749153470374926</v>
+        <v>28.37213823640987</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>32.8727886820913</v>
+        <v>28.37213827862735</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>39.00834370135177</v>
+        <v>28.37213829028899</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>11.48672643001978</v>
+        <v>28.372138126019</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>18.90263753962768</v>
+        <v>28.37213815275573</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>24.49352147358984</v>
+        <v>28.37213816257429</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>2.251571276681394</v>
+        <v>28.37213812417565</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>17.91769020894668</v>
+        <v>28.37213815464987</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>21.96913357174669</v>
+        <v>28.37213816398827</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>6.002930234548634</v>
+        <v>28.37213812744588</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>28.99505397001361</v>
+        <v>28.37213815987712</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>32.85649023819377</v>
+        <v>28.37213816878862</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>25.20886576902125</v>
+        <v>28.37213816894829</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>29.37502365422943</v>
+        <v>28.37213818074513</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>31.96065054654987</v>
+        <v>28.37213818398872</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>11.44754977055743</v>
+        <v>28.37213814566068</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>22.00011887318412</v>
+        <v>28.37213817461698</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>28.88652726842895</v>
+        <v>28.37213818345264</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>13.39351727956507</v>
+        <v>28.3721381744964</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>25.25050159863904</v>
+        <v>28.37213820620553</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>30.79146059690495</v>
+        <v>28.37213821772659</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>0.1395439594820815</v>
+        <v>28.37213817007247</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>13.43237180180711</v>
+        <v>28.37213820376576</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>20.17538115705756</v>
+        <v>28.37213821607666</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>1.703039227677824</v>
+        <v>28.37213817779346</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>26.00177263791813</v>
+        <v>28.37213821484176</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>11.21442535646175</v>
+        <v>28.37213813852904</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>21.21139199480784</v>
+        <v>28.37213816697187</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>26.50735318687303</v>
+        <v>28.37213817669313</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>4.43043554200934</v>
+        <v>28.37213813805116</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>23.85206407601183</v>
+        <v>28.37213817063328</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>27.87746576455816</v>
+        <v>28.37213817999224</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>8.956330629316501</v>
+        <v>28.37213814230271</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>35.5687810424949</v>
+        <v>28.3721381767684</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>39.05041379257764</v>
+        <v>28.37213818559161</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>34.93261215843453</v>
+        <v>28.37213818576577</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>39.0137124247638</v>
+        <v>28.3721381977076</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>41.83849071392263</v>
+        <v>28.37213820103814</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>16.99742615443319</v>
+        <v>28.37213816036117</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>31.86899466423363</v>
+        <v>28.37213819122494</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>38.20102808526884</v>
+        <v>28.37213819974898</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>14.55543454545837</v>
+        <v>28.37213819097924</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>29.52273224811474</v>
+        <v>28.37213822469257</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>35.02961406052396</v>
+        <v>28.37213823616096</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>4.798448076642583</v>
+        <v>28.37213818817571</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>22.54472742503631</v>
+        <v>28.37213822434336</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>29.54621994350266</v>
+        <v>28.37213823681414</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>7.217908099148234</v>
+        <v>28.37213819709789</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>35.95127245687556</v>
+        <v>28.37213823652035</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>13.41303210624797</v>
+        <v>28.37213814104175</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>23.86495404471123</v>
+        <v>28.37213816947323</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>29.27803596231708</v>
+        <v>28.3721381791353</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>7.773218214225837</v>
+        <v>28.37213814106851</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>27.74938040562533</v>
+        <v>28.37213817363542</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>31.9275926203071</v>
+        <v>28.37213818297951</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>12.57472619735426</v>
+        <v>28.37213814538282</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>39.69493319169825</v>
+        <v>28.37213817981949</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>43.30740967851469</v>
+        <v>28.37213818858899</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>39.28146809988045</v>
+        <v>28.37213818865713</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>43.26358037221328</v>
+        <v>28.37213820045238</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>46.35445775347497</v>
+        <v>28.37213820382211</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>20.21696200416723</v>
+        <v>28.37213816305191</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>35.9081156403848</v>
+        <v>28.37213819404565</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>42.3031225032966</v>
+        <v>28.37213820243294</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>17.04946642471457</v>
+        <v>28.37213819340016</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>32.54651829409022</v>
+        <v>28.37213822709244</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>38.18425596980136</v>
+        <v>28.37213823850331</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>8.457740001810457</v>
+        <v>28.37213819112787</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>26.92351906329915</v>
+        <v>28.37213822727002</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>34.11895142628003</v>
+        <v>28.37213823976177</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>11.19596446354173</v>
+        <v>28.37213820009763</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>40.57307885798364</v>
+        <v>28.37213823949295</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-11.85432024636428</v>
+        <v>28.37213813310256</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>-2.690582209108185</v>
+        <v>28.37213816041089</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>2.871217324564961</v>
+        <v>28.37213817028185</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-20.64259390424372</v>
+        <v>28.37213813278334</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>-2.322947227151927</v>
+        <v>28.37213816397842</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>1.851808582936313</v>
+        <v>28.37213817351951</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>-17.58365301963325</v>
+        <v>28.37213813639635</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>8.095205770795024</v>
+        <v>28.37213816950979</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>11.8616447381052</v>
+        <v>28.37213817848812</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>8.399458041719855</v>
+        <v>28.37213817826855</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>12.61260209421401</v>
+        <v>28.3721381899392</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>15.39576300701839</v>
+        <v>28.37213819336518</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>-7.745316547863583</v>
+        <v>28.37213815389685</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>5.722329866885675</v>
+        <v>28.37213818391364</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>12.4326051140601</v>
+        <v>28.37213819257137</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>-10.64450047259679</v>
+        <v>28.37213818291616</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>3.404320011356161</v>
+        <v>28.37213821529192</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>9.08215133329084</v>
+        <v>28.37213822694452</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-22.95509718209362</v>
+        <v>28.37213818012275</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>-6.572926902168597</v>
+        <v>28.3721382146292</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>0.5371774141163779</v>
+        <v>28.37213822733924</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-22.18941814170219</v>
+        <v>28.37213818825401</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>5.361294549146146</v>
+        <v>28.37213822612727</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>33.94958949170098</v>
+        <v>28.37213822592266</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>23.96673385263309</v>
+        <v>28.37213822098497</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>33.74731238923799</v>
+        <v>28.37213823645488</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>38.1986233248978</v>
+        <v>28.37213824045146</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>8.221289655559429</v>
+        <v>28.37213819255106</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>27.51109854597895</v>
+        <v>28.3721382285444</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>34.42327479438502</v>
+        <v>28.37213823853764</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>15.97438373519355</v>
+        <v>28.37213820385884</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>28.57577936614298</v>
+        <v>28.37213823647609</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>36.00323378981514</v>
+        <v>28.37213824771868</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>0.7301052972086519</v>
+        <v>28.37213820095861</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>18.62507417311494</v>
+        <v>28.37213823586556</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>24.25771303976269</v>
+        <v>28.3721382478869</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>6.15214158181135</v>
+        <v>28.37213821035358</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>34.53308711303084</v>
+        <v>28.37213824850052</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>43.94148451503577</v>
+        <v>28.37213825934094</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>38.74293953015953</v>
+        <v>28.37213825403071</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>46.09698561946505</v>
+        <v>28.37213826864936</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>52.32636130426006</v>
+        <v>28.37213827205203</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>11.92035418317504</v>
+        <v>28.37213822383054</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>37.60779430007214</v>
+        <v>28.37213825942209</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>44.98754324922943</v>
+        <v>28.37213826994094</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>43.93529859962001</v>
+        <v>28.37213824761107</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>36.57432376547309</v>
+        <v>28.37213824197374</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>45.84977784880698</v>
+        <v>28.37213825746984</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>50.71474346765859</v>
+        <v>28.37213826155868</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>16.41799946974236</v>
+        <v>28.37213821134086</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>40.93086676421368</v>
+        <v>28.37213824962539</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>47.59396319321279</v>
+        <v>28.37213825931126</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>20.38512284634085</v>
+        <v>28.37213822206</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>36.40470853447879</v>
+        <v>28.37213825674744</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>43.50392854495661</v>
+        <v>28.37213826785916</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>8.638713054872126</v>
+        <v>28.37213822082461</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>31.47496703386633</v>
+        <v>28.37213825830593</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>37.04294240796088</v>
+        <v>28.37213827042092</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>15.30959265395212</v>
+        <v>28.37213823148608</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>48.55773496982255</v>
+        <v>28.37213827211821</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>57.50579157556965</v>
+        <v>28.37213828284544</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>55.54135937262038</v>
+        <v>28.37213827677697</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>62.41748250389239</v>
+        <v>28.37213829143712</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>68.7767091042485</v>
+        <v>28.3721382948672</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>24.04772856051127</v>
+        <v>28.37213824447058</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>55.10461072858577</v>
+        <v>28.37213828228904</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>61.95316102987331</v>
+        <v>28.37213829242955</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>48.73682936294297</v>
+        <v>28.37213825053488</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>41.10913014405259</v>
+        <v>28.37213824468883</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>50.14908027168764</v>
+        <v>28.37213825997377</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>55.38109922102218</v>
+        <v>28.372138264104</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>20.02816225127894</v>
+        <v>28.37213821394689</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>45.53328092921883</v>
+        <v>28.3721382523469</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>52.25466762091125</v>
+        <v>28.3721382618882</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>23.32000158432293</v>
+        <v>28.37213822460044</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>39.92634741792702</v>
+        <v>28.37213825931526</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>47.10235459230282</v>
+        <v>28.37213827033673</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>12.91637141405844</v>
+        <v>28.37213822391729</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>36.55523302235488</v>
+        <v>28.37213826143016</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>42.24070903128662</v>
+        <v>28.37213827352046</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>19.89872202164493</v>
+        <v>28.37213823461953</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>53.86368757882527</v>
+        <v>28.37213827526482</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>62.88657762171476</v>
+        <v>28.37213828590547</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>60.76507192091595</v>
+        <v>28.3721382796389</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>67.50595183858128</v>
+        <v>28.37213829411348</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>74.09558625002077</v>
+        <v>28.37213829755534</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>28.28672322415721</v>
+        <v>28.37213824716811</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>60.34549036349416</v>
+        <v>28.3721382851443</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>67.22090601635558</v>
+        <v>28.3721382951201</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>13.56653523149344</v>
+        <v>28.37213823734793</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>7.19712572777877</v>
+        <v>28.37213823152616</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>16.84042614158408</v>
+        <v>28.37213824670681</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>21.69395832912411</v>
+        <v>28.37213825090942</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-11.10038463547959</v>
+        <v>28.372138202172</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>11.91400155331038</v>
+        <v>28.37213823940568</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>18.80903512842234</v>
+        <v>28.37213824919621</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-5.70294501690057</v>
+        <v>28.37213821375659</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>9.303629854650069</v>
+        <v>28.37213824720534</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>16.70530206200863</v>
+        <v>28.3721382584754</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-19.93172471843878</v>
+        <v>28.37213821256598</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>1.458523682161802</v>
+        <v>28.37213824847905</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>7.200738611577037</v>
+        <v>28.3721382607685</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-15.00119195220394</v>
+        <v>28.37213822243421</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>16.99637734920794</v>
+        <v>28.37213826156881</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>26.34608244021238</v>
+        <v>28.37213827242359</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>25.21935054354093</v>
+        <v>28.37213826624675</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>32.38800033880494</v>
+        <v>28.37213828063384</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>38.81545134235617</v>
+        <v>28.37213828414327</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-4.479197034823844</v>
+        <v>28.37213823491068</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>25.11398291765394</v>
+        <v>28.37213827182523</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>32.2665340579483</v>
+        <v>28.37213828209837</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>12.61433624822713</v>
+        <v>28.37213812466575</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>21.93981781160517</v>
+        <v>28.37213815152968</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>26.37684044833048</v>
+        <v>28.37213816118127</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>2.296373883502568</v>
+        <v>28.37213812232835</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>19.17713179111263</v>
+        <v>28.37213815281414</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>22.63014071025263</v>
+        <v>28.37213816206477</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>6.275165718924393</v>
+        <v>28.37213812559105</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>30.82062146442057</v>
+        <v>28.37213815802923</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>34.03478157561427</v>
+        <v>28.37213816684387</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>27.89080026634865</v>
+        <v>28.37213816734977</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>31.83455425447657</v>
+        <v>28.3721381790354</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>34.1850010743517</v>
+        <v>28.37213818224053</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>9.303176987253686</v>
+        <v>28.3721381435692</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>24.3040024850411</v>
+        <v>28.37213817290695</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>29.43501886080371</v>
+        <v>28.37213818167574</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>13.90584605779996</v>
+        <v>28.37213817187121</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>27.12707087700657</v>
+        <v>28.37213820366411</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>31.59035421618779</v>
+        <v>28.37213821504884</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>0.3127497663111067</v>
+        <v>28.3721381670121</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>14.16216346543</v>
+        <v>28.37213820068692</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>20.49152924001952</v>
+        <v>28.372138212908</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>2.131627482598933</v>
+        <v>28.37213817471684</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>27.41507991388981</v>
+        <v>28.37213821174114</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>12.05755785204772</v>
+        <v>28.37213813688926</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>23.94885478786514</v>
+        <v>28.37213816547888</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>28.09817235102558</v>
+        <v>28.37213817501759</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>4.212395049089031</v>
+        <v>28.37213813591896</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>24.80902495851672</v>
+        <v>28.37213816853469</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>28.23940506681858</v>
+        <v>28.37213817779113</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>8.927908819128321</v>
+        <v>28.37213814012954</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>37.05548843287121</v>
+        <v>28.37213817461771</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>39.89202162019349</v>
+        <v>28.37213818332746</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>37.32348724837885</v>
+        <v>28.37213818380738</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>41.13548882197168</v>
+        <v>28.37213819564482</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>43.71730975310979</v>
+        <v>28.37213819893134</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>14.55496529774437</v>
+        <v>28.37213815793331</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>33.86415387762174</v>
+        <v>28.37213818920978</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>38.44484582578215</v>
+        <v>28.37213819765784</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>14.65064891386556</v>
+        <v>28.37213818803334</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>30.98884240611207</v>
+        <v>28.37213822185211</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>35.40852680152283</v>
+        <v>28.37213823316521</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>4.558845505340038</v>
+        <v>28.37213818479895</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>22.83962542752024</v>
+        <v>28.37213822096982</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>29.41343560656115</v>
+        <v>28.37213823333222</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>7.164880012042083</v>
+        <v>28.37213819367411</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>36.86685865461267</v>
+        <v>28.37213823309099</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>14.24278205987593</v>
+        <v>28.37213813939508</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>26.5603778310326</v>
+        <v>28.37213816796957</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>30.83247783102424</v>
+        <v>28.37213817744937</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>7.55465284008435</v>
+        <v>28.37213813893671</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>28.68178493853784</v>
+        <v>28.37213817153568</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>32.26696312717068</v>
+        <v>28.37213818077718</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>12.54436689706917</v>
+        <v>28.3721381432074</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>41.14875870569745</v>
+        <v>28.37213817766525</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>44.11787009667139</v>
+        <v>28.37213818631908</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>41.63846702251606</v>
+        <v>28.37213818668848</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>45.35634667706361</v>
+        <v>28.37213819837967</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>48.19213484848166</v>
+        <v>28.37213820170389</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>17.80351586624545</v>
+        <v>28.37213816063268</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>37.87795651141951</v>
+        <v>28.37213819203073</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>42.52596789642566</v>
+        <v>28.3721382003387</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>17.10358543860435</v>
+        <v>28.37213819046951</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>33.95995494796952</v>
+        <v>28.37213822426384</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>38.50920769332403</v>
+        <v>28.37213823551776</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>8.180876034890405</v>
+        <v>28.37213818776984</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>27.1709865998187</v>
+        <v>28.37213822391289</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>33.93430740024696</v>
+        <v>28.37213823629629</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>11.10390198420689</v>
+        <v>28.37213819669185</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>41.4329348688382</v>
+        <v>28.37213823608042</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-10.90465007200405</v>
+        <v>28.37213813168381</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>0.1847058734326086</v>
+        <v>28.37213815911775</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>4.578562218942075</v>
+        <v>28.37213816881916</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-20.76382739816741</v>
+        <v>28.37213813087891</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>-1.241170044227057</v>
+        <v>28.37213816208635</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>2.326989650460392</v>
+        <v>28.37213817153785</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-17.49820435420343</v>
+        <v>28.37213813447385</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>9.729143946192421</v>
+        <v>28.37213816759734</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>12.83666499762657</v>
+        <v>28.37213817646695</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>10.93156954392826</v>
+        <v>28.37213817658251</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>14.88766562129764</v>
+        <v>28.37213818814139</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>17.41834772194033</v>
+        <v>28.37213819151498</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>-10.11097883161713</v>
+        <v>28.37213815175867</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>7.845362372642759</v>
+        <v>28.37213818215537</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>12.77350936583916</v>
+        <v>28.37213819072642</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>-10.37410313520016</v>
+        <v>28.37213818023805</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>5.065208556913095</v>
+        <v>28.37213821269476</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>9.637775324074356</v>
+        <v>28.37213822420322</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-23.01917692804373</v>
+        <v>28.37213817701356</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>-6.087697043935428</v>
+        <v>28.37213821149775</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>0.5903913526245717</v>
+        <v>28.37213822411621</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-22.03341640090909</v>
+        <v>28.37213818512321</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>6.505775195765002</v>
+        <v>28.37213822297466</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>34.65582647919887</v>
+        <v>28.37213822274838</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>26.18790418300975</v>
+        <v>28.37213821819777</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>35.51849200930182</v>
+        <v>28.37213823351494</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>39.41385924163848</v>
+        <v>28.37213823745122</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>6.526867446168106</v>
+        <v>28.37213818937047</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>28.53953209230746</v>
+        <v>28.37213822556536</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>34.27026091463525</v>
+        <v>28.37213823558605</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>15.32796380749889</v>
+        <v>28.37213820122946</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>29.7171112413642</v>
+        <v>28.37213823387211</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>36.22706292870686</v>
+        <v>28.37213824506271</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>0.1195127034464218</v>
+        <v>28.37213819796672</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>18.88583699980467</v>
+        <v>28.37213823280106</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>24.20574525672431</v>
+        <v>28.37213824479989</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>5.768911314419279</v>
+        <v>28.37213820736957</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>35.59940936244666</v>
+        <v>28.37213824542886</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>44.21872439984016</v>
+        <v>28.37213825629538</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>40.37082888906181</v>
+        <v>28.37213825142946</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>47.31036607875832</v>
+        <v>28.37213826588976</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>53.26030548250441</v>
+        <v>28.37213826926578</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>9.601784932723644</v>
+        <v>28.37213822079477</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>38.5814651084919</v>
+        <v>28.3721382565947</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>44.5098336323488</v>
+        <v>28.372138267212</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>44.12960098448765</v>
+        <v>28.37213824408569</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>38.39120348245117</v>
+        <v>28.37213823882269</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>47.17112903198747</v>
+        <v>28.37213825417172</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>51.48176161597446</v>
+        <v>28.37213825819669</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>14.27577321575479</v>
+        <v>28.37213820779169</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>41.5064759357354</v>
+        <v>28.37213824631672</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>46.97487990994657</v>
+        <v>28.37213825601544</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>19.26940563793067</v>
+        <v>28.37213821912845</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>37.08008265454646</v>
+        <v>28.37213825386398</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>43.25042054066177</v>
+        <v>28.37213826490387</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>7.593962019714256</v>
+        <v>28.37213821754074</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>31.27711195018364</v>
+        <v>28.37213825497116</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>36.51851842598513</v>
+        <v>28.37213826704448</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>14.43194165253936</v>
+        <v>28.37213822818516</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>49.11709699522774</v>
+        <v>28.37213826875045</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>57.25387805481442</v>
+        <v>28.37213827947944</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>56.73835568379462</v>
+        <v>28.37213827384591</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>63.14866156511249</v>
+        <v>28.37213828835542</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>69.21491506217191</v>
+        <v>28.37213829175494</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>21.25413060651271</v>
+        <v>28.3721382410946</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>55.61837948638001</v>
+        <v>28.37213827916681</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>60.99734980998672</v>
+        <v>28.37213828938765</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>48.87282717126864</v>
+        <v>28.37213824702245</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>42.87856292036221</v>
+        <v>28.3721382415512</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>51.43397072963261</v>
+        <v>28.37213825668914</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>56.10688861447925</v>
+        <v>28.37213826075379</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>17.883801683462</v>
+        <v>28.37213821042213</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>46.07125441725064</v>
+        <v>28.37213824905638</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>51.59799352389535</v>
+        <v>28.37213825860544</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>22.13325178697309</v>
+        <v>28.372138221682</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>40.50976411542744</v>
+        <v>28.37213825644163</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>46.75804607931563</v>
+        <v>28.37213826738943</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>11.80787965535746</v>
+        <v>28.37213822064884</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>36.27602063887448</v>
+        <v>28.37213825810825</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>41.63376347634871</v>
+        <v>28.37213827015663</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>18.95423246466656</v>
+        <v>28.37213823133429</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>54.33091406144364</v>
+        <v>28.37213827191232</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>62.54400374467511</v>
+        <v>28.37213828255035</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>61.88277212168008</v>
+        <v>28.3721382767175</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>68.16370983919852</v>
+        <v>28.37213829104208</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>74.45340999284156</v>
+        <v>28.3721382944521</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>25.45894442537097</v>
+        <v>28.37213824381413</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>60.78800266937458</v>
+        <v>28.37213828203949</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>66.19552909583619</v>
+        <v>28.37213829208873</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>13.97914531340817</v>
+        <v>28.37213823410547</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>9.219985655111815</v>
+        <v>28.37213822867955</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>18.379385461335</v>
+        <v>28.37213824370908</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>22.65927517887515</v>
+        <v>28.37213824783782</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-13.07654576863674</v>
+        <v>28.37213819894804</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>12.68454299959396</v>
+        <v>28.37213823638316</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>18.36972835834132</v>
+        <v>28.37213824617947</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>-6.652374468204123</v>
+        <v>28.37213821106416</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>10.16829626775942</v>
+        <v>28.37213824453428</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>16.62905097024365</v>
+        <v>28.37213825574613</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-20.81769915787273</v>
+        <v>28.37213820951189</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>1.436697200341203</v>
+        <v>28.37213824534556</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>6.852551922315378</v>
+        <v>28.37213825761268</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>-15.69060371338315</v>
+        <v>28.37213821938585</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>17.76634459187022</v>
+        <v>28.37213825843464</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>26.2985132922535</v>
+        <v>28.37213826930075</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>26.60673012427355</v>
+        <v>28.37213826357571</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>33.32031062177487</v>
+        <v>28.37213827780477</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>39.45205250790679</v>
+        <v>28.37213828127803</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>-7.12065584068443</v>
+        <v>28.37213823182304</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>25.80787524358574</v>
+        <v>28.37213826895207</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>31.47577986174488</v>
+        <v>28.37213827929789</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>15.6821662226741</v>
+        <v>28.37213811658678</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>26.74875046077885</v>
+        <v>28.37213814763786</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>32.35061942439546</v>
+        <v>28.37213815878413</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>5.306436856294949</v>
+        <v>28.37213811422835</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>25.86363457980899</v>
+        <v>28.3721381495766</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>29.92968179900808</v>
+        <v>28.37213816021582</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>9.513091115061105</v>
+        <v>28.37213811819211</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>39.01994134989101</v>
+        <v>28.37213815574415</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>43.00917842157771</v>
+        <v>28.37213816590167</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>35.4083059632011</v>
+        <v>28.37213816578012</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>40.53222950774047</v>
+        <v>28.3721381792913</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>43.14755468001097</v>
+        <v>28.37213818297543</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>13.30089445819063</v>
+        <v>28.37213813832782</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>30.09180354706055</v>
+        <v>28.37213817208152</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>37.03443178379288</v>
+        <v>28.37213818215374</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>17.88194212916622</v>
+        <v>28.37213817232884</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>33.74988652234821</v>
+        <v>28.37213820908879</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>38.46676978797212</v>
+        <v>28.37213822214144</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>3.149190253314432</v>
+        <v>28.37213816703086</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>20.71439055583512</v>
+        <v>28.37213820605785</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>27.24896415536884</v>
+        <v>28.37213822003383</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>4.850804367510371</v>
+        <v>28.37213817616858</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>35.52327272448429</v>
+        <v>28.3721382190251</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>15.60329388771376</v>
+        <v>28.37213813098677</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>29.70871723663572</v>
+        <v>28.37213816403056</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>34.92117540535768</v>
+        <v>28.37213817503593</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>8.045077813894528</v>
+        <v>28.37213813018857</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>32.99591679621155</v>
+        <v>28.37213816800472</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>36.97030518345631</v>
+        <v>28.37213817863842</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>13.16946731562146</v>
+        <v>28.37213813525317</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>46.90684587305965</v>
+        <v>28.37213817517202</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>50.40163714459232</v>
+        <v>28.37213818519823</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>46.96435335979903</v>
+        <v>28.37213818504332</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>51.95598850760598</v>
+        <v>28.37213819871654</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>54.80248105724946</v>
+        <v>28.37213820248975</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>19.92294506812253</v>
+        <v>28.37213815515983</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>41.73656098426805</v>
+        <v>28.37213819114391</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>48.00763862241712</v>
+        <v>28.37213820083149</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>19.21546021055578</v>
+        <v>28.37213819119146</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>38.73777057592163</v>
+        <v>28.37213823027994</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>43.32564460993663</v>
+        <v>28.37213824323495</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>8.498652340699058</v>
+        <v>28.3721381877484</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>31.25950014936774</v>
+        <v>28.37213822965777</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>37.99088702845926</v>
+        <v>28.37213824377505</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>11.16823717092872</v>
+        <v>28.37213819823711</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>47.01368319048526</v>
+        <v>28.37213824384628</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>18.2607091357041</v>
+        <v>28.37213813385535</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>32.8836656768005</v>
+        <v>28.37213816688536</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>38.21964111691184</v>
+        <v>28.37213817782022</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>12.03833917149609</v>
+        <v>28.37213813365133</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>37.62415826052749</v>
+        <v>28.37213817145102</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>41.75703069851929</v>
+        <v>28.3721381820663</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>17.49731530044152</v>
+        <v>28.37213813878165</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>51.80253639315712</v>
+        <v>28.37213817866744</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>55.43290531744032</v>
+        <v>28.37213818862704</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>52.12288373366462</v>
+        <v>28.3721381883562</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>57.004799700399</v>
+        <v>28.3721382018599</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>60.13179510933775</v>
+        <v>28.37213820567507</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>23.81722844114993</v>
+        <v>28.37213815825645</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>46.5362365899843</v>
+        <v>28.37213819438334</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>52.86744174238179</v>
+        <v>28.37213820391079</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>22.1808746647616</v>
+        <v>28.37213819395244</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>42.31675095639531</v>
+        <v>28.37213823301663</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>47.0358578694986</v>
+        <v>28.3721382459</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>12.82310568113811</v>
+        <v>28.37213819112844</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>36.41396703998129</v>
+        <v>28.37213823300957</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>43.34339391613179</v>
+        <v>28.37213824714791</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>15.87312548778473</v>
+        <v>28.37213820166453</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>52.45298239567415</v>
+        <v>28.37213824724304</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>-10.91371068554071</v>
+        <v>28.37213812476995</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>2.253899127178841</v>
+        <v>28.37213815648565</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>7.77327189212226</v>
+        <v>28.37213816768172</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-20.74545022155931</v>
+        <v>28.37213812418985</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>2.957474547442728</v>
+        <v>28.37213816037711</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>7.109985281855925</v>
+        <v>28.37213817124569</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>-17.31364937606057</v>
+        <v>28.37213812853567</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>15.38079190191288</v>
+        <v>28.37213816688277</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>19.21034680928938</v>
+        <v>28.37213817709712</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>16.51353791371442</v>
+        <v>28.37213817655237</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>21.6742259509568</v>
+        <v>28.37213818990868</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>24.47005465918356</v>
+        <v>28.37213819378464</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>-8.520040622139613</v>
+        <v>28.37213814787016</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>11.72279162576811</v>
+        <v>28.37213818284293</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>18.42076218737827</v>
+        <v>28.37213819269308</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>-9.655389987023552</v>
+        <v>28.37213818199184</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>8.826799274269632</v>
+        <v>28.37213821952375</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>13.60626566680983</v>
+        <v>28.37213823270723</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-23.27982417328829</v>
+        <v>28.37213817858089</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>-2.070570173608414</v>
+        <v>28.37213821854786</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>4.791006862128542</v>
+        <v>28.37213823297264</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>-22.49925420234374</v>
+        <v>28.37213818817533</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>12.01143234801294</v>
+        <v>28.37213823198777</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>43.59660193392054</v>
+        <v>28.37213823163082</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>34.02919318231984</v>
+        <v>28.37213822573632</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>45.32244425353971</v>
+        <v>28.3721382434819</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>49.36025333679281</v>
+        <v>28.37213824799574</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>10.92214199922789</v>
+        <v>28.37213819242066</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>36.34209706019382</v>
+        <v>28.37213823411755</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>42.84425318179964</v>
+        <v>28.3721382455559</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>17.99880072012493</v>
+        <v>28.37213820491084</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>34.91173955242102</v>
+        <v>28.37213824256563</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>42.524379227883</v>
+        <v>28.37213825544566</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>1.734789217600121</v>
+        <v>28.37213820138166</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>24.50985722763298</v>
+        <v>28.37213824166304</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>30.25799271756551</v>
+        <v>28.37213825543802</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>7.363812177843768</v>
+        <v>28.37213821235055</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>42.89376391598278</v>
+        <v>28.37213825630376</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>53.11264906783076</v>
+        <v>28.37213826880078</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>48.09705646084481</v>
+        <v>28.37213826253549</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>57.218466504444</v>
+        <v>28.37213827931437</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>63.70866761105655</v>
+        <v>28.37213828320771</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>12.58838116750441</v>
+        <v>28.37213822726096</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>46.20287985704341</v>
+        <v>28.37213826845811</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>53.35515090679288</v>
+        <v>28.37213828061594</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>55.03159497412344</v>
+        <v>28.37213825642125</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>48.64837880759889</v>
+        <v>28.37213824970794</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>59.30657801574559</v>
+        <v>28.37213826747333</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>63.78440994095793</v>
+        <v>28.37213827208207</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>20.33577237012226</v>
+        <v>28.37213821385657</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>51.80940516091432</v>
+        <v>28.37213825821796</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>57.94895080881892</v>
+        <v>28.37213826926553</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>22.8547916603206</v>
+        <v>28.37213822569216</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>43.76273206626562</v>
+        <v>28.37213826574868</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>50.92923134850556</v>
+        <v>28.37213827844617</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>10.65372423908976</v>
+        <v>28.37213822407126</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>39.16414046722994</v>
+        <v>28.37213826734616</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>44.76766271816116</v>
+        <v>28.37213828119385</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>17.6903618103001</v>
+        <v>28.37213823646369</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>58.88177988099777</v>
+        <v>28.37213828329502</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>68.49454358400854</v>
+        <v>28.3721382956255</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>67.31621171464103</v>
+        <v>28.37213828846581</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>75.83518454281766</v>
+        <v>28.37213830529183</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>82.44214713751471</v>
+        <v>28.37213830920589</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>26.33248427044115</v>
+        <v>28.37213825076248</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>66.18861585685441</v>
+        <v>28.37213829455827</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>72.66511484193286</v>
+        <v>28.37213830624615</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>60.65462756587925</v>
+        <v>28.37213825975402</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>53.98782031653977</v>
+        <v>28.37213825281106</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>64.3858830300756</v>
+        <v>28.37213827032954</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>69.26548992231413</v>
+        <v>28.37213827498218</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>24.63916838929853</v>
+        <v>28.37213821684431</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>57.22929436198407</v>
+        <v>28.3721382613319</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>63.41941920317146</v>
+        <v>28.37213827220642</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>26.27631399473669</v>
+        <v>28.37213822858058</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>47.85273393867865</v>
+        <v>28.37213826866648</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>55.09197962967946</v>
+        <v>28.3721382812558</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>15.64295843792758</v>
+        <v>28.3721382276021</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>45.06887701020246</v>
+        <v>28.37213827091173</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>50.7907755037256</v>
+        <v>28.3721382847298</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>23.05114680298093</v>
+        <v>28.37213824003443</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>65.04947280326323</v>
+        <v>28.37213828687969</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>74.7314086039453</v>
+        <v>28.37213829910397</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>73.3959590911423</v>
+        <v>28.37213829172478</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>81.76314662839698</v>
+        <v>28.37213830833461</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>88.61450746954883</v>
+        <v>28.37213831225906</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>31.31750769585332</v>
+        <v>28.37213825384756</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>72.29410054828456</v>
+        <v>28.37213829781581</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>78.78852198697969</v>
+        <v>28.37213830930697</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>20.29056299739201</v>
+        <v>28.37213824472499</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>15.01871896806463</v>
+        <v>28.37213823784745</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>26.12129549106202</v>
+        <v>28.3721382552459</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>30.56705447791686</v>
+        <v>28.37213825997788</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>-11.18569483746591</v>
+        <v>28.37213820348146</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>18.59383881045028</v>
+        <v>28.37213824659906</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>24.99764857071059</v>
+        <v>28.37213825777823</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>-7.021318749806149</v>
+        <v>28.37213821620806</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>12.74137551207755</v>
+        <v>28.37213825481568</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>20.25879791579727</v>
+        <v>28.37213826771429</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>-22.05120414116572</v>
+        <v>28.3721382146542</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>4.815223368975889</v>
+        <v>28.37213825608701</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>10.62621974802774</v>
+        <v>28.37213827016973</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>-17.00735484417909</v>
+        <v>28.37213822614959</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>22.77252198592308</v>
+        <v>28.37213827123676</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>32.85768672855217</v>
+        <v>28.3721382837301</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>32.61740675585128</v>
+        <v>28.37213827649621</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>41.50064160875908</v>
+        <v>28.3721382929969</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>48.17865386325003</v>
+        <v>28.37213829699853</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>-6.336317895413748</v>
+        <v>28.37213823993772</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>31.86927026296758</v>
+        <v>28.37213828264764</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>38.69438292017223</v>
+        <v>28.37213829449639</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>16.80529013842629</v>
+        <v>28.37213812465924</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>25.02658497913307</v>
+        <v>28.37213815312159</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>30.82896743470421</v>
+        <v>28.37213816359328</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>9.312611997818674</v>
+        <v>28.37213812289389</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>26.48638361266238</v>
+        <v>28.37213815535454</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>30.83497682644966</v>
+        <v>28.37213816531018</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>12.62138433325874</v>
+        <v>28.37213812647026</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>37.66333140951508</v>
+        <v>28.37213816104592</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>41.84978574679928</v>
+        <v>28.37213817054632</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>33.30042230336963</v>
+        <v>28.37213817029585</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>37.95989401010623</v>
+        <v>28.37213818286849</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>40.65151845792597</v>
+        <v>28.37213818636852</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>17.84365603645113</v>
+        <v>28.37213814555551</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>29.03532905001524</v>
+        <v>28.3721381762761</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>36.8288120792534</v>
+        <v>28.3721381856776</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>16.47627145165683</v>
+        <v>28.37213817663443</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>29.11047599693794</v>
+        <v>28.37213821032494</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>34.60219118051285</v>
+        <v>28.37213822261152</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>5.015993716385896</v>
+        <v>28.37213817225026</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>19.52034942473893</v>
+        <v>28.37213820802659</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>26.27634864731011</v>
+        <v>28.37213822114241</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>5.23281019397942</v>
+        <v>28.37213818043927</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>31.31640350458374</v>
+        <v>28.37213821985156</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>16.90573884225675</v>
+        <v>28.37213813828657</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>27.93791837865071</v>
+        <v>28.37213816856787</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>33.37531906013901</v>
+        <v>28.37213817892973</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>11.97301722545099</v>
+        <v>28.37213813795841</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>33.21907260278</v>
+        <v>28.37213817266455</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>37.4899085171391</v>
+        <v>28.3721381826409</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>16.15458176416245</v>
+        <v>28.37213814259671</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>45.11931264766397</v>
+        <v>28.37213817934163</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>48.85885366250588</v>
+        <v>28.37213818874331</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>44.11768687154282</v>
+        <v>28.37213818850285</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>48.69281673646254</v>
+        <v>28.3721382012238</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>51.60482036329596</v>
+        <v>28.3721382048079</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>24.14294028060547</v>
+        <v>28.37213816149925</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>39.97355529438894</v>
+        <v>28.37213819424765</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>47.15421666796584</v>
+        <v>28.37213820330496</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>18.00963122326824</v>
+        <v>28.37213819442059</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>33.9951448714334</v>
+        <v>28.37213823023626</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>39.39079921625111</v>
+        <v>28.3721382424609</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>10.24672961434116</v>
+        <v>28.37213819175008</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>29.52429217925379</v>
+        <v>28.37213823014819</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>36.50730440359394</v>
+        <v>28.37213824343265</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>11.42043626421064</v>
+        <v>28.37213820123372</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>42.26821984724278</v>
+        <v>28.37213824316794</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>19.35383602392022</v>
+        <v>28.37213814097153</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>30.89020251233996</v>
+        <v>28.37213817124633</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>36.43909860127796</v>
+        <v>28.37213818154465</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>15.61672708360416</v>
+        <v>28.37213814118633</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>37.46861745553112</v>
+        <v>28.37213817588065</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>41.88618333830623</v>
+        <v>28.37213818584182</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>20.11633896612105</v>
+        <v>28.3721381458926</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>49.63935009369975</v>
+        <v>28.37213818261131</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>53.50258711895375</v>
+        <v>28.37213819195529</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>48.87480589120886</v>
+        <v>28.37213819160312</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>53.34178299646847</v>
+        <v>28.37213820416946</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>56.52510198923949</v>
+        <v>28.37213820779287</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>27.68577158832005</v>
+        <v>28.37213816438391</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>44.39691413589326</v>
+        <v>28.37213819727432</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>51.63589035637182</v>
+        <v>28.37213820618696</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>20.77937187944012</v>
+        <v>28.37213819699598</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>37.34125030380032</v>
+        <v>28.37213823279403</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>42.86361113892566</v>
+        <v>28.37213824495502</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>14.2359399540367</v>
+        <v>28.37213819489172</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>34.2806570160061</v>
+        <v>28.37213823326654</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>41.45862598942855</v>
+        <v>28.37213824657233</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>15.77455396691644</v>
+        <v>28.37213820442844</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>47.31947910414575</v>
+        <v>28.37213824633841</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>-7.672630582184455</v>
+        <v>28.37213813233614</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>2.462233217315739</v>
+        <v>28.37213816142055</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>8.198055251815122</v>
+        <v>28.37213817194483</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>-14.67556896306515</v>
+        <v>28.37213813220757</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>5.384822736273952</v>
+        <v>28.37213816544483</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>9.830713723214615</v>
+        <v>28.37213817561851</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>-12.08134788793295</v>
+        <v>28.37213813615823</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>15.88358081566922</v>
+        <v>28.37213817147213</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>19.94136528285179</v>
+        <v>28.37213818104199</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>15.87613322714242</v>
+        <v>28.37213818038824</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>20.59327604908357</v>
+        <v>28.3721381928269</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>23.46755654542751</v>
+        <v>28.37213819651807</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>-2.182544227177826</v>
+        <v>28.37213815448249</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>12.14531103739377</v>
+        <v>28.3721381863382</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>19.74517293931603</v>
+        <v>28.37213819555373</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>-8.852859198662728</v>
+        <v>28.37213818568781</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>6.145008078119178</v>
+        <v>28.3721382200983</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>11.73497838042795</v>
+        <v>28.37213823251777</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>-19.27638352883481</v>
+        <v>28.37213818304328</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>-1.455652208163798</v>
+        <v>28.37213821969024</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>5.64968224428392</v>
+        <v>28.3721382332293</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>-19.90328220466485</v>
+        <v>28.37213819167761</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>9.679840050700754</v>
+        <v>28.37213823197721</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>39.7293109657932</v>
+        <v>28.37213823165197</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>28.95635235951102</v>
+        <v>28.37213822602442</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>39.66521736055055</v>
+        <v>28.37213824255036</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>44.23709354947622</v>
+        <v>28.37213824684746</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>11.74131361854278</v>
+        <v>28.3721381958173</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>32.35438515866457</v>
+        <v>28.37213823396985</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>39.47300327051272</v>
+        <v>28.37213824455786</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>17.60520508824418</v>
+        <v>28.37213820708387</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>30.84641996670129</v>
+        <v>28.37213824166947</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>38.70748524787052</v>
+        <v>28.37213825369358</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>4.671459961443105</v>
+        <v>28.37213820429641</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>23.7782724971767</v>
+        <v>28.37213824130002</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>29.54418232188996</v>
+        <v>28.37213825414532</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>8.533712047388459</v>
+        <v>28.37213821419671</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>38.74006811345026</v>
+        <v>28.37213825471139</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>49.10695698417251</v>
+        <v>28.37213826629709</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>43.28466518137351</v>
+        <v>28.372138260248</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>51.65873124163097</v>
+        <v>28.37213827587846</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>58.13883210387791</v>
+        <v>28.3721382795619</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>14.19441077868019</v>
+        <v>28.37213822828025</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>41.61205321616688</v>
+        <v>28.37213826594373</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>49.79165072844274</v>
+        <v>28.37213827713167</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>50.67027428651189</v>
+        <v>28.37213825497371</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>42.71225953052064</v>
+        <v>28.37213824859827</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>52.875023116482</v>
+        <v>28.37213826514044</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>57.85570011293536</v>
+        <v>28.37213826952724</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>20.77101562371022</v>
+        <v>28.37213821605686</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>46.95740550818564</v>
+        <v>28.37213825663316</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>53.77630160548129</v>
+        <v>28.37213826688241</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>22.51016330949037</v>
+        <v>28.37213822666641</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>39.41487764318776</v>
+        <v>28.37213826344459</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>46.88307489184753</v>
+        <v>28.37213827532789</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>13.26452053332623</v>
+        <v>28.37213822563071</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>37.64334351559529</v>
+        <v>28.37213826535992</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>43.31003887052731</v>
+        <v>28.37213827830915</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>18.4791080557921</v>
+        <v>28.37213823688868</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>53.89141277058702</v>
+        <v>28.37213828003995</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>63.74224459313412</v>
+        <v>28.37213829150488</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>61.37771975283989</v>
+        <v>28.37213828463796</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>69.23136893830254</v>
+        <v>28.37213830030668</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>75.82908145248619</v>
+        <v>28.37213830401085</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>27.30102165311538</v>
+        <v>28.37213825043955</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>60.43183151923029</v>
+        <v>28.37213829045533</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>68.02590361808042</v>
+        <v>28.37213830123399</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>55.89788526015469</v>
+        <v>28.37213825809018</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>47.66024685341133</v>
+        <v>28.37213825149357</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>57.56603488663198</v>
+        <v>28.37213826780917</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>62.92649727385624</v>
+        <v>28.37213827223805</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>24.73634238808171</v>
+        <v>28.37213821883803</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>51.97326634609697</v>
+        <v>28.37213825953801</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>58.84781498841821</v>
+        <v>28.37213826963345</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>25.7371838566635</v>
+        <v>28.37213822936323</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>43.27669283460989</v>
+        <v>28.37213826617355</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>50.81561719979275</v>
+        <v>28.37213827795986</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>17.89587584533131</v>
+        <v>28.37213822891669</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>43.12806117161924</v>
+        <v>28.37213826868108</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>48.91187404790777</v>
+        <v>28.37213828160537</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>23.46700108579574</v>
+        <v>28.37213824021935</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>59.65013272348993</v>
+        <v>28.37213828338676</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>69.56804231014083</v>
+        <v>28.37213829475904</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>67.03926975121085</v>
+        <v>28.37213828768372</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>74.74287926028408</v>
+        <v>28.37213830315368</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>81.57425167062246</v>
+        <v>28.37213830686802</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>31.92663765452519</v>
+        <v>28.37213825331441</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>66.1108503079391</v>
+        <v>28.3721382934945</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>73.72978439674581</v>
+        <v>28.37213830409931</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>18.33132509904721</v>
+        <v>28.37213824392197</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>11.41673678732471</v>
+        <v>28.37213823735385</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>21.97447819555255</v>
+        <v>28.37213825356143</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>26.94704432949085</v>
+        <v>28.37213825807708</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-8.539534371127877</v>
+        <v>28.37213820616952</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>16.05081443827333</v>
+        <v>28.372138245641</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>23.12321879655432</v>
+        <v>28.37213825601577</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>-5.289936471636906</v>
+        <v>28.37213821767669</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>10.52868233175854</v>
+        <v>28.37213825315128</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>18.33197103201612</v>
+        <v>28.37213826520345</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-17.1020828907473</v>
+        <v>28.37213821671178</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>5.734597864869952</v>
+        <v>28.37213825478376</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>11.59107769261963</v>
+        <v>28.37213826792132</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>-13.77931001015466</v>
+        <v>28.37213822711998</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>20.29775142223051</v>
+        <v>28.37213826868772</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>30.58885222445125</v>
+        <v>28.37213828028976</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>29.10753722525763</v>
+        <v>28.37213827331867</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>37.28370612944294</v>
+        <v>28.37213828869735</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>43.95244629713669</v>
+        <v>28.37213829249082</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>-3.05867996978487</v>
+        <v>28.37213824015233</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>28.51655396585549</v>
+        <v>28.37213827921073</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>36.44627282408726</v>
+        <v>28.372138290144</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_5/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_5/out_of_sample/additive/ranking_test3/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.133</v>
+        <v>0.547</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.309</v>
+        <v>17.075</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.047</v>
+        <v>0.757</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.396</v>
+        <v>13.194</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.026</v>
+        <v>0.913</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.778</v>
+        <v>8.098000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>28.37213811445165</v>
+        <v>5.704832986155889</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>28.37213814500641</v>
+        <v>8.914654030631052</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28.3721381558087</v>
+        <v>17.24506843250297</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>28.37213811202291</v>
+        <v>-4.637413520706684</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>28.37213814686383</v>
+        <v>9.521155035781337</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>28.37213815714704</v>
+        <v>12.32272225046037</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>28.37213811568092</v>
+        <v>-2.633800088677187</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>28.37213815259853</v>
+        <v>22.28716235669046</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>28.37213816240013</v>
+        <v>25.32049818608439</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28.37213816262628</v>
+        <v>14.26010252797678</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>28.37213817570842</v>
+        <v>19.80733472589489</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>28.37213817919908</v>
+        <v>22.51998333658491</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>28.37213813555009</v>
+        <v>5.325210888184337</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>28.37213816877308</v>
+        <v>8.724611763504786</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>28.37213817868736</v>
+        <v>18.40039995413946</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>28.37213816962592</v>
+        <v>11.82713495206375</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>28.37213820591465</v>
+        <v>21.80939592590206</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>28.37213821846653</v>
+        <v>27.13131457061704</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>28.37213816422056</v>
+        <v>-1.496859795546289</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>28.37213820279678</v>
+        <v>9.71932709532906</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>28.37213821627077</v>
+        <v>14.40949166091411</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>28.37213817320187</v>
+        <v>-1.612747124151515</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>28.3721382154815</v>
+        <v>23.05977187938693</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>28.37213812787632</v>
+        <v>6.22957585478758</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>28.37213816035255</v>
+        <v>16.47557610072368</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>28.37213817102828</v>
+        <v>21.05972924714873</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>28.37213812695402</v>
+        <v>-3.711988701676951</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>28.37213816419108</v>
+        <v>22.43548885010515</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>28.37213817446562</v>
+        <v>23.15364403791907</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>28.37213813163189</v>
+        <v>-1.456583731532671</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>28.3721381708317</v>
+        <v>34.98629308294397</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>28.3721381805149</v>
+        <v>35.4333084181626</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>28.37213818072856</v>
+        <v>36.75721354330607</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>28.37213819397761</v>
+        <v>41.41447005356854</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>28.37213819756956</v>
+        <v>42.32518012729797</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>28.3721381513127</v>
+        <v>10.84610156258883</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>28.37213818670066</v>
+        <v>30.35311025324575</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>28.37213819624228</v>
+        <v>34.48321097079958</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>28.372138187529</v>
+        <v>13.72044670254561</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>28.37213822607545</v>
+        <v>31.90950654361313</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>28.37213823854005</v>
+        <v>35.51236664743168</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>28.37213818391506</v>
+        <v>2.571011633478971</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>28.37213822530543</v>
+        <v>27.91965282358506</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>28.37213823891362</v>
+        <v>33.01798468036866</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>28.37213819416068</v>
+        <v>4.63813797273086</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>28.37213823910583</v>
+        <v>44.8038795891909</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>28.37213813062699</v>
+        <v>1.098513529533623</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>28.37213816308414</v>
+        <v>11.83331565122682</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>28.37213817368806</v>
+        <v>18.72070325367809</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>28.37213813027478</v>
+        <v>-4.506290839827852</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>28.37213816749121</v>
+        <v>20.65355801655352</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>28.37213817774059</v>
+        <v>23.80102898949736</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>28.37213813501166</v>
+        <v>-2.042145752957271</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>28.37213817417204</v>
+        <v>34.53542093106653</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>28.37213818378749</v>
+        <v>38.10039047023528</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>28.37213818389502</v>
+        <v>38.3937235086078</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>28.37213819697715</v>
+        <v>41.26471340998354</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>28.37213820061436</v>
+        <v>44.88899864106097</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>28.37213815426638</v>
+        <v>4.053129056337141</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>28.3721381897912</v>
+        <v>26.08394746980917</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>28.37213819917013</v>
+        <v>32.14474754782445</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>28.3721381901719</v>
+        <v>9.016663075819611</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>28.37213822869053</v>
+        <v>27.36516550517382</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>28.37213824108211</v>
+        <v>33.90378979860066</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>28.37213818715677</v>
+        <v>0.8222981409156667</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>28.37213822851711</v>
+        <v>24.65954149220184</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>28.3721382421379</v>
+        <v>33.19239438674086</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>28.37213819743872</v>
+        <v>3.018536245058776</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>28.37213824234642</v>
+        <v>42.96995623649507</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>28.37213812215741</v>
+        <v>-1.219299364648965</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>28.37213815334915</v>
+        <v>7.838063449462638</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>28.37213816418639</v>
+        <v>18.80056599289806</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>28.37213812143062</v>
+        <v>-3.810485364649708</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>28.37213815708588</v>
+        <v>18.57155018018078</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>28.3721381675644</v>
+        <v>25.98877883628436</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>28.37213812543188</v>
+        <v>-3.222437278779051</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>28.37213816310885</v>
+        <v>30.8643142127146</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>28.37213817294956</v>
+        <v>38.28007957775167</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>28.37213817280035</v>
+        <v>30.95590094299177</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>28.37213818572631</v>
+        <v>33.64078432364339</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>28.37213818939813</v>
+        <v>40.42525514246932</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>28.37213814452253</v>
+        <v>2.86877623690452</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>28.37213817892584</v>
+        <v>21.79602169341</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>28.37213818859963</v>
+        <v>33.80775904511604</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>28.37213817882441</v>
+        <v>5.708616351758099</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>28.37213821586102</v>
+        <v>22.80191813150496</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>28.37213822852456</v>
+        <v>31.92327849072759</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>28.3721381752374</v>
+        <v>0.006977578991801181</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>28.37213821473521</v>
+        <v>20.63796900709212</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>28.37213822861651</v>
+        <v>31.31448366960166</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>28.37213818462992</v>
+        <v>-0.6376232887378386</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>28.37213822782895</v>
+        <v>35.32081897147555</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>28.37213822761098</v>
+        <v>31.26102379362525</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>28.37213822218735</v>
+        <v>22.19873740547994</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>28.37213823933168</v>
+        <v>34.40188695082157</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>28.37213824364257</v>
+        <v>36.03089661479328</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>28.3721381892348</v>
+        <v>5.586587721619043</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>28.37213823033354</v>
+        <v>22.38322619091541</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>28.37213824160935</v>
+        <v>27.34860836844994</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>28.3721382023168</v>
+        <v>13.04847291635768</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>28.3721382395265</v>
+        <v>24.35511700067038</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>28.37213825194924</v>
+        <v>34.76335020736742</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>28.37213819873736</v>
+        <v>-5.182720451825436</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>28.37213823857875</v>
+        <v>11.66490237657672</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>28.37213825187419</v>
+        <v>18.00251939120439</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>28.37213820961506</v>
+        <v>-3.441253252886579</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>28.3721382530063</v>
+        <v>30.16248731862484</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>28.37213826508027</v>
+        <v>43.27499593224085</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>28.37213825928377</v>
+        <v>31.21350379682875</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>28.3721382755175</v>
+        <v>45.30700185778536</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>28.37213827923809</v>
+        <v>51.65007868183415</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>28.3721382242805</v>
+        <v>3.444631819836815</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>28.37213826501147</v>
+        <v>29.71326523476942</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>28.37213827701413</v>
+        <v>39.37637913389641</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>28.37213825121461</v>
+        <v>53.08399661472881</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>28.37213824501123</v>
+        <v>49.22495791090792</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>28.37213826218873</v>
+        <v>57.79945007160094</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>28.37213826660594</v>
+        <v>58.65169275389115</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>28.37213820960568</v>
+        <v>16.97552808090736</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>28.37213825329246</v>
+        <v>53.40877981523549</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>28.37213826418986</v>
+        <v>54.90309423921876</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>28.37213822212653</v>
+        <v>18.98121806242915</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>28.37213826166947</v>
+        <v>40.19830532728769</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>28.37213827391672</v>
+        <v>46.08057830653934</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>28.37213822040627</v>
+        <v>4.97981180765418</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>28.372138263174</v>
+        <v>40.17827160824</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>28.37213827652661</v>
+        <v>43.26123621811297</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>28.37213823262984</v>
+        <v>9.467586194365342</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>28.37213827881617</v>
+        <v>61.35409661308655</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>28.37213829072711</v>
+        <v>69.44377066602401</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>28.37213828409728</v>
+        <v>72.25223285664163</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>28.37213830038544</v>
+        <v>79.76881878397838</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>28.37213830413576</v>
+        <v>84.2285780102</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>28.3721382467296</v>
+        <v>24.66928242746061</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>28.37213828999787</v>
+        <v>74.15722267420881</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>28.37213830153424</v>
+        <v>76.53423020058058</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>28.37213825438984</v>
+        <v>55.44287174460346</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>28.37213824797146</v>
+        <v>45.34449936443357</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>28.37213826490866</v>
+        <v>52.08235869138248</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>28.37213826937046</v>
+        <v>57.58893191175369</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>28.37213821244812</v>
+        <v>9.875627065002725</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>28.37213825625633</v>
+        <v>49.83163547886664</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>28.37213826697724</v>
+        <v>53.62540339733606</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>28.37213822490267</v>
+        <v>14.28786990957082</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>28.37213826447106</v>
+        <v>36.79024793605059</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>28.37213827660856</v>
+        <v>44.96432056619711</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>28.3721382238035</v>
+        <v>3.259455594726514</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>28.37213826660455</v>
+        <v>38.59387991645748</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>28.3721382799176</v>
+        <v>44.38948825523111</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>28.37213823605761</v>
+        <v>8.517333986366094</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>28.37213828225239</v>
+        <v>61.63449620272911</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>28.37213829405465</v>
+        <v>72.673437879362</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>28.37213828721844</v>
+        <v>72.80137877680683</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>28.37213830329639</v>
+        <v>78.73240279995075</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>28.37213830705835</v>
+        <v>86.7177006748271</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>28.37213824967622</v>
+        <v>17.77962282587552</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>28.37213829311517</v>
+        <v>72.88456708984626</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>28.37213830444885</v>
+        <v>77.93633579127204</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>28.37213824006916</v>
+        <v>50.10314659724484</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>28.37213823372734</v>
+        <v>30.59109277048593</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>28.37213825053844</v>
+        <v>38.53245396227135</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>28.37213825504983</v>
+        <v>46.86896494915275</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>28.37213819973458</v>
+        <v>6.30767187864587</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>28.37213824221263</v>
+        <v>42.95763687924111</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>28.37213825320632</v>
+        <v>50.73328527550824</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>28.37213821315708</v>
+        <v>12.19413860784214</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>28.37213825129765</v>
+        <v>34.46415463391656</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>28.37213826371691</v>
+        <v>46.70231985793467</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>28.37213821148331</v>
+        <v>3.34653223639069</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>28.3721382524612</v>
+        <v>34.92817921008941</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>28.3721382660152</v>
+        <v>45.26335535319934</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>28.37213822284772</v>
+        <v>5.502400576021568</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>28.37213826734155</v>
+        <v>55.56861678480561</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>28.37213827938634</v>
+        <v>71.11144991740724</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>28.37213827268546</v>
+        <v>60.87446731873527</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>28.37213828864914</v>
+        <v>70.83148369616143</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>28.37213829246699</v>
+        <v>82.63535542353276</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>28.37213823640987</v>
+        <v>13.14760991223814</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>28.37213827862735</v>
+        <v>64.79023317184884</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>28.37213829028899</v>
+        <v>76.71797554760829</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>28.372138126019</v>
+        <v>10.60835518184409</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>28.37213815275573</v>
+        <v>11.12174784911431</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>28.37213816257429</v>
+        <v>18.33057579076608</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>28.37213812417565</v>
+        <v>-2.073044354825953</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>28.37213815464987</v>
+        <v>9.228648484426799</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>28.37213816398827</v>
+        <v>10.91085816407496</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>28.37213812744588</v>
+        <v>3.04292898940156</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>28.37213815987712</v>
+        <v>21.48233381826564</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>28.37213816878862</v>
+        <v>25.08295256751564</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>28.37213816894829</v>
+        <v>14.00674964681159</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>28.37213818074513</v>
+        <v>20.02957403940332</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>28.37213818398872</v>
+        <v>22.70805295639674</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>28.37213814566068</v>
+        <v>10.50768940468883</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>28.37213817461698</v>
+        <v>11.09892021134754</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>28.37213818345264</v>
+        <v>20.45363408350575</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>28.3721381744964</v>
+        <v>11.32652388890097</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>28.37213820620553</v>
+        <v>18.55529778673105</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>28.37213821772659</v>
+        <v>25.31032408098246</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>28.37213817007247</v>
+        <v>-2.742810253991156</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>28.37213820376576</v>
+        <v>4.428540277773973</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>28.37213821607666</v>
+        <v>9.859893164333712</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>28.37213817779346</v>
+        <v>-2.027601465369091</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>28.37213821484176</v>
+        <v>15.26280742744956</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>28.37213813852904</v>
+        <v>11.8304854636972</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>28.37213816697187</v>
+        <v>18.71000735809773</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>28.37213817669313</v>
+        <v>23.08357027135473</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>28.37213813805116</v>
+        <v>-0.4007112539015871</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>28.37213817063328</v>
+        <v>21.61239742805009</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>28.37213817999224</v>
+        <v>22.1867242966935</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>28.37213814230271</v>
+        <v>5.27103900279662</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>28.3721381767684</v>
+        <v>34.19654012668655</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>28.37213818559161</v>
+        <v>36.13839077580933</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>28.37213818576577</v>
+        <v>36.31436060835128</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>28.3721381977076</v>
+        <v>42.09340365930736</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>28.37213820103814</v>
+        <v>43.39750638288109</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>28.37213816036117</v>
+        <v>18.13524673382114</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>28.37213819122494</v>
+        <v>32.98491032053089</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>28.37213819974898</v>
+        <v>38.12978639610232</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>28.37213819097924</v>
+        <v>14.36923003649599</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>28.37213822469257</v>
+        <v>29.10142798463858</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>28.37213823616096</v>
+        <v>34.92879931062749</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>28.37213818817571</v>
+        <v>2.731877560738997</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>28.37213822434336</v>
+        <v>22.56449056998684</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>28.37213823681414</v>
+        <v>29.29353300838723</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>28.37213819709789</v>
+        <v>5.895570670618898</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>28.37213823652035</v>
+        <v>37.28263314638998</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>28.37213814104175</v>
+        <v>5.750194382810182</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>28.37213816947323</v>
+        <v>13.2958918329288</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>28.3721381791353</v>
+        <v>19.75995167358689</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>28.37213814106851</v>
+        <v>-2.472230202440649</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>28.37213817363542</v>
+        <v>18.83885120381697</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>28.37213818297951</v>
+        <v>21.76510889898986</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>28.37213814538282</v>
+        <v>3.179362211196246</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>28.37213817981949</v>
+        <v>32.54945189485918</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>28.37213818858899</v>
+        <v>37.37913539155676</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>28.37213818865713</v>
+        <v>36.05289319365332</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>28.37213820045238</v>
+        <v>40.41532565813702</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>28.37213820382211</v>
+        <v>44.27864964767747</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>28.37213816305191</v>
+        <v>10.71933477651705</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>28.37213819404565</v>
+        <v>27.95112170476116</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>28.37213820243294</v>
+        <v>35.16929046683752</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>28.37213819340016</v>
+        <v>8.507503510909604</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>28.37213822709244</v>
+        <v>23.4843848363837</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>28.37213823850331</v>
+        <v>32.16776392491261</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>28.37213819112787</v>
+        <v>-0.424975339968622</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>28.37213822727002</v>
+        <v>18.1098735398635</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>28.37213823976177</v>
+        <v>28.34091991428521</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>28.37213820009763</v>
+        <v>2.628124111642585</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>28.37213823949295</v>
+        <v>34.02005201894375</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>28.37213813310256</v>
+        <v>2.489590720314126</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>28.37213816041089</v>
+        <v>8.433819474487816</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>28.37213817028185</v>
+        <v>18.24580249128999</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>28.37213813278334</v>
+        <v>-2.875542847278101</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>28.37213816397842</v>
+        <v>15.9402482256762</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>28.37213817351951</v>
+        <v>22.3126976905117</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>28.37213813639635</v>
+        <v>0.8059625657049381</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>28.37213816950979</v>
+        <v>27.86292614195978</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>28.37213817848812</v>
+        <v>35.81983620850564</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>28.37213817826855</v>
+        <v>27.40762698706142</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>28.3721381899392</v>
+        <v>30.86510111362795</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>28.37213819336518</v>
+        <v>37.65673730914586</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>28.37213815389685</v>
+        <v>7.039741189205479</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>28.37213818391364</v>
+        <v>21.50693092155764</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>28.37213819257137</v>
+        <v>33.64605956040955</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>28.37213818291616</v>
+        <v>5.481963083640164</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>28.37213821529192</v>
+        <v>19.15411201588858</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>28.37213822694452</v>
+        <v>30.06904706322526</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>28.37213818012275</v>
+        <v>-1.023654650729714</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>28.3721382146292</v>
+        <v>14.5454662397482</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>28.37213822733924</v>
+        <v>26.67308364157334</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>28.37213818825401</v>
+        <v>-0.7468275016131436</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>28.37213822612727</v>
+        <v>26.98945834781044</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>28.37213822592266</v>
+        <v>25.99578117595446</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>28.37213822098497</v>
+        <v>13.93865969708727</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>28.37213823645488</v>
+        <v>26.3418073930621</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>28.37213824045146</v>
+        <v>31.12205128284586</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>28.37213819255106</v>
+        <v>2.504881430429585</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>28.3721382285444</v>
+        <v>15.25729760318103</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>28.37213823853764</v>
+        <v>23.13437289567394</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>28.37213820385884</v>
+        <v>14.69457384769103</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>28.37213823647609</v>
+        <v>22.03701583942235</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>28.37213824771868</v>
+        <v>32.03123929035762</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>28.37213820095861</v>
+        <v>-3.685818599253235</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>28.37213823586556</v>
+        <v>7.445015266267905</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>28.3721382478869</v>
+        <v>13.74168425600806</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>28.37213821035358</v>
+        <v>-1.021143502197866</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>28.37213824850052</v>
+        <v>23.1283237930486</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>28.37213825934094</v>
+        <v>37.30889580248576</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>28.37213825403071</v>
+        <v>24.71108478508214</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>28.37213826864936</v>
+        <v>37.09975764480079</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>28.37213827205203</v>
+        <v>44.37810821102984</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>28.37213822383054</v>
+        <v>5.082125959619798</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>28.37213825942209</v>
+        <v>22.25932702249801</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>28.37213826994094</v>
+        <v>34.66124105194873</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>28.37213824761107</v>
+        <v>48.95546870189195</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>28.37213824197374</v>
+        <v>41.01507677303716</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>28.37213825746984</v>
+        <v>50.89739269248145</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>28.37213826155868</v>
+        <v>55.15214730525362</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>28.37213821134086</v>
+        <v>16.33369900844102</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>28.37213824962539</v>
+        <v>46.77149357555905</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>28.37213825931126</v>
+        <v>52.26074925565909</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>28.37213822206</v>
+        <v>22.08173828657702</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>28.37213825674744</v>
+        <v>38.43396361468132</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>28.37213826785916</v>
+        <v>44.96402389808026</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>28.37213822082461</v>
+        <v>7.379409165850049</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>28.37213825830593</v>
+        <v>34.88283276124188</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>28.37213827042092</v>
+        <v>39.24115135374523</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>28.37213823148608</v>
+        <v>13.15113599136827</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>28.37213827211821</v>
+        <v>53.8910452823157</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>28.37213828284544</v>
+        <v>64.38406165829998</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>28.37213827677697</v>
+        <v>64.6454124836057</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>28.37213829143712</v>
+        <v>71.85842284822564</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>28.3721382948672</v>
+        <v>77.63548019263185</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>28.37213824447058</v>
+        <v>28.10395474192424</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>28.37213828228904</v>
+        <v>65.90811061096886</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>28.37213829242955</v>
+        <v>72.67862251920391</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>28.37213825053488</v>
+        <v>49.78575544796807</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>28.37213824468883</v>
+        <v>35.53904562673941</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>28.37213825997377</v>
+        <v>43.97541204822402</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>28.372138264104</v>
+        <v>52.67365021569607</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>28.37213821394689</v>
+        <v>8.487935549141259</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>28.3721382523469</v>
+        <v>42.1373712125632</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>28.3721382618882</v>
+        <v>50.12170822210709</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>28.37213822460044</v>
+        <v>16.57622404997219</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>28.37213825931526</v>
+        <v>34.27545280465646</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>28.37213827033673</v>
+        <v>43.05932799838478</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>28.37213822391729</v>
+        <v>4.736277810203095</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>28.37213826143016</v>
+        <v>32.49462330205658</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>28.37213827352046</v>
+        <v>39.64061506674494</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>28.37213823461953</v>
+        <v>10.90404999644448</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>28.37213827526482</v>
+        <v>53.07025170775839</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>28.37213828590547</v>
+        <v>66.49228253713689</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>28.3721382796389</v>
+        <v>63.62095063309152</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>28.37213829411348</v>
+        <v>69.59067357658826</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>28.37213829755534</v>
+        <v>78.77443410388631</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>28.37213824716811</v>
+        <v>20.8254718670694</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>28.3721382851443</v>
+        <v>63.69660251474707</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>28.3721382951201</v>
+        <v>73.28410005192761</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>28.37213823734793</v>
+        <v>44.66558601701518</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>28.37213823152616</v>
+        <v>22.0038896725672</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>28.37213824670681</v>
+        <v>30.52464343104983</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>28.37213825090942</v>
+        <v>42.15049102615384</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>28.372138202172</v>
+        <v>3.842800150711234</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>28.37213823940568</v>
+        <v>34.48215942062065</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>28.37213824919621</v>
+        <v>46.08850092231853</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>28.37213821375659</v>
+        <v>13.43130002047087</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>28.37213824720534</v>
+        <v>30.78122694344859</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>28.3721382584754</v>
+        <v>43.15105233580442</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>28.37213821256598</v>
+        <v>3.933510053604284</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>28.37213824847905</v>
+        <v>28.30864453363293</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>28.3721382607685</v>
+        <v>39.39914483287576</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>28.37213822243421</v>
+        <v>6.951127921536994</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>28.37213826156881</v>
+        <v>46.32122551625905</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>28.37213827242359</v>
+        <v>63.69597719580926</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>28.37213826624675</v>
+        <v>51.29582102103413</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>28.37213828063384</v>
+        <v>59.99615555504053</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>28.37213828414327</v>
+        <v>73.0061186643975</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>28.37213823491068</v>
+        <v>14.00368452010961</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>28.37213827182523</v>
+        <v>53.81661253463579</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>28.37213828209837</v>
+        <v>69.44233178353434</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>28.37213812466575</v>
+        <v>11.25013905439058</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>28.37213815152968</v>
+        <v>16.89608327593065</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>28.37213816118127</v>
+        <v>22.44837131177385</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>28.37213812232835</v>
+        <v>-1.66417384472167</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>28.37213815281414</v>
+        <v>10.52185610190848</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>28.37213816206477</v>
+        <v>12.43012607217239</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>28.37213812559105</v>
+        <v>2.703297071278435</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>28.37213815802923</v>
+        <v>24.555486645096</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>28.37213816684387</v>
+        <v>27.43387224892889</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>28.37213816734977</v>
+        <v>18.39475660485353</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>28.3721381790354</v>
+        <v>24.41773328555052</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>28.37213818224053</v>
+        <v>26.86460608473649</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>28.3721381435692</v>
+        <v>6.331927667794538</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>28.37213817290695</v>
+        <v>14.81801739739723</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>28.37213818167574</v>
+        <v>21.84721192517525</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>28.37213817187121</v>
+        <v>10.99731253035586</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>28.37213820366411</v>
+        <v>20.75544915671368</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>28.37213821504884</v>
+        <v>26.73149167245278</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>28.3721381670121</v>
+        <v>-1.842447139814759</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>28.37213820068692</v>
+        <v>5.377901110025949</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>28.372138212908</v>
+        <v>11.40748477278101</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>28.37213817471684</v>
+        <v>-1.547778586233473</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>28.37213821174114</v>
+        <v>17.5152909425093</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>28.37213813688926</v>
+        <v>12.56363755964169</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>28.37213816547888</v>
+        <v>24.9818494549082</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>28.37213817501759</v>
+        <v>27.36446314193932</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>28.37213813591896</v>
+        <v>0.7982358923306911</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>28.37213816853469</v>
+        <v>23.95778686015316</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>28.37213817779113</v>
+        <v>24.33959027248609</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>28.37213814012954</v>
+        <v>5.477142121988479</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>28.37213817461771</v>
+        <v>38.16005122327721</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>28.37213818332746</v>
+        <v>38.97408672736653</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>28.37213818380738</v>
+        <v>40.88903489645365</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>28.37213819564482</v>
+        <v>46.44571161062173</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>28.37213819893134</v>
+        <v>47.17351372903514</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>28.37213815793331</v>
+        <v>13.3625346674051</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>28.37213818920978</v>
+        <v>36.79107730833909</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>28.37213819765784</v>
+        <v>39.28348058715687</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>28.37213818803334</v>
+        <v>13.47753803036231</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>28.37213822185211</v>
+        <v>31.199915520717</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>28.37213823316521</v>
+        <v>35.95350889873596</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>28.37213818479895</v>
+        <v>3.437465882462231</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>28.37213822096982</v>
+        <v>23.58531539389373</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>28.37213823333222</v>
+        <v>30.56843229159319</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>28.37213819367411</v>
+        <v>5.903019130554767</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>28.37213823309099</v>
+        <v>39.48866619244923</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>28.37213813939508</v>
+        <v>6.834127790806296</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>28.37213816796957</v>
+        <v>19.57891491661653</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>28.37213817744937</v>
+        <v>24.1615954826564</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>28.37213813893671</v>
+        <v>-0.9729603713690835</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>28.37213817153568</v>
+        <v>21.17011892086209</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>28.37213818077718</v>
+        <v>23.99798443575873</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>28.3721381432074</v>
+        <v>3.833698553751951</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>28.37213817766525</v>
+        <v>36.56722813679423</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>28.37213818631908</v>
+        <v>40.34585827610965</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>28.37213818668848</v>
+        <v>40.75586288871187</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>28.37213819837967</v>
+        <v>44.81809766899499</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>28.37213820170389</v>
+        <v>48.12590335765668</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>28.37213816063268</v>
+        <v>6.385382383084337</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>28.37213819203073</v>
+        <v>31.8218629518984</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>28.3721382003387</v>
+        <v>36.28307598666233</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>28.37213819046951</v>
+        <v>7.91657586853724</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>28.37213822426384</v>
+        <v>25.6019732145669</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>28.37213823551776</v>
+        <v>33.2833429647347</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>28.37213818776984</v>
+        <v>0.5130188377099536</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>28.37213822391289</v>
+        <v>19.07323381495406</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>28.37213823629629</v>
+        <v>29.61835729130879</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>28.37213819669185</v>
+        <v>3.05115927686888</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>28.37213823608042</v>
+        <v>36.27344825704128</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>28.37213813168381</v>
+        <v>4.332423101443776</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>28.37213815911775</v>
+        <v>14.97988994367819</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>28.37213816881916</v>
+        <v>23.28275773041646</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>28.37213813087891</v>
+        <v>-1.152729753676173</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>28.37213816208635</v>
+        <v>18.18792108844968</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>28.37213817153785</v>
+        <v>24.85337028186517</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>28.37213813447385</v>
+        <v>2.012415222713546</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>28.37213816759734</v>
+        <v>31.94170409445323</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>28.37213817646695</v>
+        <v>39.28285528385108</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>28.37213817658251</v>
+        <v>32.41404374024756</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>28.37213818814139</v>
+        <v>36.08405666304836</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>28.37213819151498</v>
+        <v>42.58706087427328</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>28.37213815175867</v>
+        <v>4.343486348412604</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>28.37213818215537</v>
+        <v>26.43348771894368</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>28.37213819072642</v>
+        <v>36.056857987999</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>28.37213818023805</v>
+        <v>5.095472623846636</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>28.37213821269476</v>
+        <v>20.9149630508234</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>28.37213822420322</v>
+        <v>31.14695982094953</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>28.37213817701356</v>
+        <v>-0.2878163323420502</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>28.37213821149775</v>
+        <v>14.94844032650071</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>28.37213822411621</v>
+        <v>27.63214167756515</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>28.37213818512321</v>
+        <v>-0.2693888324754283</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>28.37213822297466</v>
+        <v>28.6627465368909</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>28.37213822274838</v>
+        <v>27.69426282922755</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>28.37213821819777</v>
+        <v>17.86693604521401</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>28.37213823351494</v>
+        <v>30.55795571138154</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>28.37213823745122</v>
+        <v>33.86219921670295</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>28.37213818937047</v>
+        <v>0.6257953688432245</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>28.37213822556536</v>
+        <v>18.12336211944926</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>28.37213823558605</v>
+        <v>25.09088438179354</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>28.37213820122946</v>
+        <v>12.63249382578274</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>28.37213823387211</v>
+        <v>22.95058563746704</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>28.37213824506271</v>
+        <v>32.42614448771854</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>28.37213819796672</v>
+        <v>-4.880776576522852</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>28.37213823280106</v>
+        <v>6.480663502991472</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>28.37213824479989</v>
+        <v>13.70899988989885</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>28.37213820736957</v>
+        <v>-3.05794742402864</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>28.37213824542886</v>
+        <v>22.68571199793722</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>28.37213825629538</v>
+        <v>36.69447987711384</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>28.37213825142946</v>
+        <v>25.3929906409308</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>28.37213826588976</v>
+        <v>38.54295922646909</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>28.37213826926578</v>
+        <v>46.52105371166896</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>28.37213822079477</v>
+        <v>-0.2255192370867114</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>28.3721382565947</v>
+        <v>22.50305097570638</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>28.372138267212</v>
+        <v>34.61756509412634</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>28.37213824408569</v>
+        <v>50.18149097171187</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>28.37213823882269</v>
+        <v>44.57774688254956</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>28.37213825417172</v>
+        <v>54.50271549600976</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>28.37213825819669</v>
+        <v>57.01713386703449</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>28.37213820779169</v>
+        <v>12.94729743318321</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>28.37213824631672</v>
+        <v>48.84981725090391</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>28.37213825601544</v>
+        <v>53.23232203910601</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>28.37213821912845</v>
+        <v>19.48113947232256</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>28.37213825386398</v>
+        <v>39.32780914559414</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>28.37213826490387</v>
+        <v>44.94932171043193</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>28.37213821754074</v>
+        <v>6.181470358968657</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>28.37213825497116</v>
+        <v>34.27788456473387</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>28.37213826704448</v>
+        <v>39.13566221412947</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>28.37213822818516</v>
+        <v>10.84820041760145</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>28.37213826875045</v>
+        <v>53.66685078598071</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>28.37213827947944</v>
+        <v>63.50062909246456</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>28.37213827384591</v>
+        <v>65.10841358465481</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>28.37213828835542</v>
+        <v>72.87826580347307</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>28.37213829175494</v>
+        <v>79.02882141309567</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>28.3721382410946</v>
+        <v>21.34035419125397</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>28.37213827916681</v>
+        <v>65.51101777272144</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>28.37213828938765</v>
+        <v>71.64487127896682</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>28.37213824702245</v>
+        <v>51.11002565650589</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>28.3721382415512</v>
+        <v>39.31487592262184</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>28.37213825668914</v>
+        <v>47.74216753726221</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>28.37213826075379</v>
+        <v>54.7342507627409</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>28.37213821042213</v>
+        <v>5.489392767439465</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>28.37213824905638</v>
+        <v>44.2956579298359</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>28.37213825860544</v>
+        <v>51.09803034085269</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>28.372138221682</v>
+        <v>13.68611272999363</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>28.37213825644163</v>
+        <v>34.54825516128268</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>28.37213826738943</v>
+        <v>42.55338869621495</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>28.37213822064884</v>
+        <v>2.999411368576247</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>28.37213825810825</v>
+        <v>31.00023873316338</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>28.37213827015663</v>
+        <v>38.80632526040816</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>28.37213823133429</v>
+        <v>8.243734259362505</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>28.37213827191232</v>
+        <v>52.06483956029489</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>28.37213828255035</v>
+        <v>64.95112884368046</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>28.3721382767175</v>
+        <v>63.46036295539791</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>28.37213829104208</v>
+        <v>69.97445928487161</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>28.3721382944521</v>
+        <v>79.57787496145086</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>28.37213824381413</v>
+        <v>13.69992160282457</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>28.37213828203949</v>
+        <v>62.60300123354772</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>28.37213829208873</v>
+        <v>71.55337219658631</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>28.37213823410547</v>
+        <v>45.84767320142772</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>28.37213822867955</v>
+        <v>25.17451384756055</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>28.37213824370908</v>
+        <v>34.36622756396427</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>28.37213824783782</v>
+        <v>44.45079442601838</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>28.37213819894804</v>
+        <v>1.987945636337049</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>28.37213823638316</v>
+        <v>37.11091513158181</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>28.37213824617947</v>
+        <v>47.63161175697331</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>28.37213821106416</v>
+        <v>10.54695016517891</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>28.37213824453428</v>
+        <v>30.39791671903227</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>28.37213825574613</v>
+        <v>42.39876878172224</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>28.37213820951189</v>
+        <v>1.657319260529096</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>28.37213824534556</v>
+        <v>25.7507380312815</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>28.37213825761268</v>
+        <v>37.91550021873794</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>28.37213821938585</v>
+        <v>3.992698606300614</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>28.37213825843464</v>
+        <v>44.27029076042713</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>28.37213826930075</v>
+        <v>61.6084727487431</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>28.37213826357571</v>
+        <v>50.2128353489433</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>28.37213827780477</v>
+        <v>60.01825162823347</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>28.37213828127803</v>
+        <v>73.73827038971027</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>28.37213823182304</v>
+        <v>7.802871357613785</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>28.37213826895207</v>
+        <v>52.78565602336737</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>28.37213827929789</v>
+        <v>68.13974529310389</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>28.37213811658678</v>
+        <v>10.37710322057748</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>28.37213814763786</v>
+        <v>18.56387891581853</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>28.37213815878413</v>
+        <v>25.3831377043571</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>28.37213811422835</v>
+        <v>-1.489925235296219</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>28.3721381495766</v>
+        <v>16.58316499970873</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>28.37213816021582</v>
+        <v>18.62607043820792</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>28.37213811819211</v>
+        <v>2.338709883864247</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>28.37213815574415</v>
+        <v>32.2386138933264</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>28.37213816590167</v>
+        <v>34.79809832523274</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>28.37213816578012</v>
+        <v>23.03790221427896</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>28.3721381792913</v>
+        <v>30.2977296782646</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>28.37213818297543</v>
+        <v>31.77186419124739</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>28.37213813832782</v>
+        <v>7.257879154864757</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>28.37213817208152</v>
+        <v>16.73878449805365</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>28.37213818215374</v>
+        <v>25.85708987854055</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>28.37213817232884</v>
+        <v>11.50998900205499</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>28.37213820908879</v>
+        <v>23.63619074136185</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>28.37213822214144</v>
+        <v>28.19930744084371</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>28.37213816703086</v>
+        <v>-2.142717928780979</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>28.37213820605785</v>
+        <v>9.547082532352853</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>28.37213822003383</v>
+        <v>13.42386974951324</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>28.37213817616858</v>
+        <v>-2.841605230759317</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>28.3721382190251</v>
+        <v>23.25496650210209</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>28.37213813098677</v>
+        <v>13.78304036030448</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>28.37213816403056</v>
+        <v>29.9838077733755</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>28.37213817503593</v>
+        <v>32.95001401383887</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>28.37213813018857</v>
+        <v>2.977496787447866</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>28.37213816800472</v>
+        <v>34.06370025372073</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>28.37213817863842</v>
+        <v>34.15066114171408</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>28.37213813525317</v>
+        <v>7.353997359875546</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>28.37213817517202</v>
+        <v>50.07318519944286</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>28.37213818519823</v>
+        <v>50.07392327104435</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>28.37213818504332</v>
+        <v>50.95590729301969</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>28.37213819871654</v>
+        <v>57.59468514871138</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>28.37213820248975</v>
+        <v>56.96922202909303</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>28.37213815515983</v>
+        <v>17.05893373993406</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>28.37213819114391</v>
+        <v>43.74554377994833</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>28.37213820083149</v>
+        <v>47.56497935781395</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>28.37213819119146</v>
+        <v>14.7504858399743</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>28.37213823027994</v>
+        <v>36.05773937049927</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>28.37213824323495</v>
+        <v>38.8755677136073</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>28.3721381877484</v>
+        <v>3.936421298468986</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>28.37213822965777</v>
+        <v>30.7000955277142</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>28.37213824377505</v>
+        <v>35.28138980339922</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>28.37213819823711</v>
+        <v>5.777112120452149</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>28.37213824384628</v>
+        <v>48.72349853061375</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>28.37213813385535</v>
+        <v>7.969537392075853</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>28.37213816688536</v>
+        <v>24.83440886671393</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>28.37213817782022</v>
+        <v>30.24669314636175</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>28.37213813365133</v>
+        <v>1.976154870565079</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>28.37213817145102</v>
+        <v>32.11585049988346</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>28.3721381820663</v>
+        <v>34.96282838974584</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>28.37213813878165</v>
+        <v>6.512210286907834</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>28.37213817866744</v>
+        <v>49.61431404791486</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>28.37213818862704</v>
+        <v>52.92185589472172</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>28.3721381883562</v>
+        <v>52.11911536430374</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>28.3721382018599</v>
+        <v>57.06112503417917</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>28.37213820567507</v>
+        <v>59.32788142413428</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>28.37213815825645</v>
+        <v>10.01168371814459</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>28.37213819438334</v>
+        <v>39.26591010596414</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>28.37213820391079</v>
+        <v>45.36012787367046</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>28.37213819395244</v>
+        <v>9.131886872929428</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>28.37213823301663</v>
+        <v>30.72658534503367</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>28.3721382459</v>
+        <v>36.73482168186552</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>28.37213819112844</v>
+        <v>1.520908946865692</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>28.37213823300957</v>
+        <v>26.77039624559663</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>28.37213824714791</v>
+        <v>35.27523220505885</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>28.37213820166453</v>
+        <v>3.459679015131602</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>28.37213824724304</v>
+        <v>46.395971104258</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>28.37213812476995</v>
+        <v>4.139887284012783</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>28.37213815648565</v>
+        <v>18.67860426536644</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>28.37213816768172</v>
+        <v>28.38422233888734</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>28.37213812418985</v>
+        <v>0.9371699755679401</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>28.37213816037711</v>
+        <v>27.76930863858696</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>28.37213817124569</v>
+        <v>35.13086033648003</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>28.37213812853567</v>
+        <v>3.420264384070318</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>28.37213816688277</v>
+        <v>43.30090351308049</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>28.37213817709712</v>
+        <v>50.64298276143063</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>28.37213817655237</v>
+        <v>41.64359231353073</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>28.37213818990868</v>
+        <v>46.02036076535632</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>28.37213819378464</v>
+        <v>52.12025323019395</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>28.37213814787016</v>
+        <v>6.554068948033635</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>28.37213818284293</v>
+        <v>32.05596958980965</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>28.37213819269308</v>
+        <v>44.18099062749043</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>28.37213818199184</v>
+        <v>5.420450338822832</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>28.37213821952375</v>
+        <v>25.1200906196447</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>28.37213823270723</v>
+        <v>34.09137630175016</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>28.37213817858089</v>
+        <v>0.2206120713335586</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>28.37213821854786</v>
+        <v>21.77697780842876</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>28.37213823297264</v>
+        <v>32.85582754164147</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>28.37213818817533</v>
+        <v>-0.8386984445237964</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>28.37213823198777</v>
+        <v>37.39369897432046</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>28.37213823163082</v>
+        <v>31.11414278824669</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>28.37213822573632</v>
+        <v>22.28339628868932</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>28.3721382434819</v>
+        <v>35.68660625954816</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>28.37213824799574</v>
+        <v>37.40614024280806</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>28.37213819242066</v>
+        <v>2.274167964478327</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>28.37213823411755</v>
+        <v>22.30471306670425</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>28.3721382455559</v>
+        <v>27.70556823128903</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>28.37213820491084</v>
+        <v>11.18127938548223</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>28.37213824256563</v>
+        <v>23.00188838022216</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>28.37213825544566</v>
+        <v>33.00290810563306</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>28.37213820138166</v>
+        <v>-6.897094595466232</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>28.37213824166304</v>
+        <v>8.168032517047035</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>28.37213825543802</v>
+        <v>14.55556738276126</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>28.37213821235055</v>
+        <v>-7.091012429017564</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>28.37213825630376</v>
+        <v>25.24678006882645</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>28.37213826880078</v>
+        <v>39.21907345616732</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>28.37213826253549</v>
+        <v>28.03733343426704</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>28.37213827931437</v>
+        <v>42.51719648392061</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>28.37213828320771</v>
+        <v>50.34341599618666</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>28.37213822726096</v>
+        <v>-2.207865249200466</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>28.37213826845811</v>
+        <v>23.76663065806684</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>28.37213828061594</v>
+        <v>36.01267007799785</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>28.37213825642125</v>
+        <v>56.81378772467117</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>28.37213824970794</v>
+        <v>53.29748495399731</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>28.37213826747333</v>
+        <v>63.17786913296618</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>28.37213827208207</v>
+        <v>63.8534410105252</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>28.37213821385657</v>
+        <v>16.67016582911838</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>28.37213825821796</v>
+        <v>57.51742605722606</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>28.37213826926553</v>
+        <v>59.71346564828025</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>28.37213822569216</v>
+        <v>18.58496683124732</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>28.37213826574868</v>
+        <v>41.38516950150746</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>28.37213827844617</v>
+        <v>46.75580178232181</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>28.37213822407126</v>
+        <v>4.971607968227787</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>28.37213826734616</v>
+        <v>39.42977290554975</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>28.37213828119385</v>
+        <v>42.88124279791326</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>28.37213823646369</v>
+        <v>8.002385548426968</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>28.37213828329502</v>
+        <v>60.1046963808659</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>28.3721382956255</v>
+        <v>69.08346079934</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>28.37213828846581</v>
+        <v>72.98039080722631</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>28.37213830529183</v>
+        <v>81.01140722413919</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>28.37213830920589</v>
+        <v>86.6245368056742</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>28.37213825076248</v>
+        <v>21.8311472172595</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>28.37213829455827</v>
+        <v>72.30246063424508</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>28.37213830624615</v>
+        <v>77.56687555829043</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>28.37213825975402</v>
+        <v>59.02622599064011</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>28.37213825281106</v>
+        <v>48.45004678931146</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>28.37213827032954</v>
+        <v>56.60446015654003</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>28.37213827498218</v>
+        <v>62.28973359700581</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>28.37213821684431</v>
+        <v>8.98503480288602</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>28.3721382613319</v>
+        <v>53.4403320956074</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>28.37213827220642</v>
+        <v>58.29826039117289</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>28.37213822858058</v>
+        <v>12.6828657243472</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>28.37213826866648</v>
+        <v>36.88609486675816</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>28.3721382812558</v>
+        <v>44.85881146432986</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>28.3721382276021</v>
+        <v>2.210879011898943</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>28.37213827091173</v>
+        <v>36.76803347558883</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>28.3721382847298</v>
+        <v>43.49602412814313</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>28.37213824003443</v>
+        <v>5.96698423244834</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>28.37213828687969</v>
+        <v>59.50353060511937</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>28.37213829910397</v>
+        <v>71.82481178449905</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>28.37213829172478</v>
+        <v>72.24422054872797</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>28.37213830833461</v>
+        <v>78.77228914361076</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>28.37213831225906</v>
+        <v>88.20557986156126</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>28.37213825384756</v>
+        <v>13.98522131130794</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>28.37213829781581</v>
+        <v>70.04683617248656</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>28.37213830930697</v>
+        <v>78.47741236929332</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>28.37213824472499</v>
+        <v>52.67856332463884</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>28.37213823784745</v>
+        <v>31.87908463966863</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>28.3721382552459</v>
+        <v>40.96667633044254</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>28.37213825997788</v>
+        <v>50.33516282620732</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>28.37213820348146</v>
+        <v>4.283814696304436</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>28.37213824659906</v>
+        <v>44.96345245317195</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>28.37213825777823</v>
+        <v>54.07369954375038</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>28.37213821620806</v>
+        <v>9.506116736503021</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>28.37213825481568</v>
+        <v>32.69080602927834</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>28.37213826771429</v>
+        <v>45.26573702787979</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>28.3721382146542</v>
+        <v>1.162998982869333</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>28.37213825608701</v>
+        <v>31.30959674790596</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>28.37213827016973</v>
+        <v>43.11917821094278</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>28.37213822614959</v>
+        <v>1.568934833361201</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>28.37213827123676</v>
+        <v>51.14933701999922</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>28.3721382837301</v>
+        <v>68.53798795658159</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>28.37213827649621</v>
+        <v>57.58329587672728</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>28.3721382929969</v>
+        <v>67.87235474675522</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>28.37213829699853</v>
+        <v>82.161839794283</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>28.37213823993772</v>
+        <v>7.485878352628912</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>28.37213828264764</v>
+        <v>59.2135322599475</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>28.37213829449639</v>
+        <v>74.91688018873477</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>28.37213812465924</v>
+        <v>14.75958526402225</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>28.37213815312159</v>
+        <v>18.43338191043151</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>28.37213816359328</v>
+        <v>25.45811563564629</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>28.37213812289389</v>
+        <v>4.594455323160933</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>28.37213815535454</v>
+        <v>20.8977256730475</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>28.37213816531018</v>
+        <v>22.49356176955473</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>28.37213812647026</v>
+        <v>8.349030831967362</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>28.37213816104592</v>
+        <v>32.76686421201051</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>28.37213817054632</v>
+        <v>35.66731930653769</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>28.37213817029585</v>
+        <v>22.63571525961302</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>28.37213818286849</v>
+        <v>28.92552815284509</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>28.37213818636852</v>
+        <v>30.99097748439096</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>28.37213814555551</v>
+        <v>16.28317017705528</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>28.3721381762761</v>
+        <v>18.71728989380801</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>28.3721381856776</v>
+        <v>29.09886205359745</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>28.37213817663443</v>
+        <v>13.59527210435613</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>28.37213821032494</v>
+        <v>22.1311512595874</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>28.37213822261152</v>
+        <v>27.40473517735852</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>28.37213817225026</v>
+        <v>2.848273757105453</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>28.37213820802659</v>
+        <v>12.34976334876973</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>28.37213822114241</v>
+        <v>16.15201715493566</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>28.37213818043927</v>
+        <v>-0.1497757961143229</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>28.37213821985156</v>
+        <v>20.81926464806014</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>28.37213813828657</v>
+        <v>17.26674477913592</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>28.37213816856787</v>
+        <v>27.94580354838022</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>28.37213817892973</v>
+        <v>31.74605620840046</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>28.37213813795841</v>
+        <v>7.543464468162046</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>28.37213817266455</v>
+        <v>35.48756261957741</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>28.3721381826409</v>
+        <v>35.80236476705112</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>28.37213814259671</v>
+        <v>11.86374025176731</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>28.37213817934163</v>
+        <v>47.77596928454696</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>28.37213818874331</v>
+        <v>48.78929770307764</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>28.37213818850285</v>
+        <v>48.00772540586649</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>28.3721382012238</v>
+        <v>53.96625881672327</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>28.3721382048079</v>
+        <v>54.47555690765885</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>28.37213816149925</v>
+        <v>25.75373194476562</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>28.37213819424765</v>
+        <v>43.3843343411337</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>28.37213820330496</v>
+        <v>49.2506148975192</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>28.37213819442059</v>
+        <v>16.75935068949522</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>28.37213823023626</v>
+        <v>33.40781306497699</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>28.3721382424609</v>
+        <v>37.40326781888902</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>28.37213819175008</v>
+        <v>8.552816404615822</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>28.37213823014819</v>
+        <v>31.66850156560182</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>28.37213824343265</v>
+        <v>36.66593664415348</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>28.37213820123372</v>
+        <v>8.114614265273108</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>28.37213824316794</v>
+        <v>44.32964969975664</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>28.37213814097153</v>
+        <v>11.58395812695576</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>28.37213817124633</v>
+        <v>23.19632320221616</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>28.37213818154465</v>
+        <v>29.15426342815205</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>28.37213814118633</v>
+        <v>6.240539285036455</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>28.37213817588065</v>
+        <v>33.58148993320828</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>28.37213818584182</v>
+        <v>36.37942724255937</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>28.3721381458926</v>
+        <v>10.61310731524992</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>28.37213818261131</v>
+        <v>47.26521960851545</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>28.37213819195529</v>
+        <v>51.28765947214382</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>28.37213819160312</v>
+        <v>48.70719269111724</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>28.37213820416946</v>
+        <v>53.18125836955716</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>28.37213820779287</v>
+        <v>56.37711567134562</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>28.37213816438391</v>
+        <v>18.76009403661133</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>28.37213819727432</v>
+        <v>39.05871153639902</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>28.37213820618696</v>
+        <v>47.12105263088074</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>28.37213819699598</v>
+        <v>11.13506566072734</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>28.37213823279403</v>
+        <v>28.27040264245535</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>28.37213824495502</v>
+        <v>35.1960771417444</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>28.37213819489172</v>
+        <v>5.840911486388219</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>28.37213823326654</v>
+        <v>27.74889594077052</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>28.37213824657233</v>
+        <v>36.4109435745758</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>28.37213820442844</v>
+        <v>5.367512519730841</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>28.37213824633841</v>
+        <v>41.88681248696624</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>28.37213813233614</v>
+        <v>7.756518631225649</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>28.37213816142055</v>
+        <v>17.71375944235092</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>28.37213817194483</v>
+        <v>27.25473132750955</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>28.37213813220757</v>
+        <v>5.48667659964936</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>28.37213816544483</v>
+        <v>30.24669738377795</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>28.37213817561851</v>
+        <v>36.70039079949903</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>28.37213813615823</v>
+        <v>7.902304658717515</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>28.37213817147213</v>
+        <v>42.11330179673253</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>28.37213818104199</v>
+        <v>49.35890202566756</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>28.37213818038824</v>
+        <v>39.01649917913824</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>28.3721381928269</v>
+        <v>42.51467276283915</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>28.37213819651807</v>
+        <v>48.97587306225194</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>28.37213815448249</v>
+        <v>14.38772460637321</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>28.3721381863382</v>
+        <v>31.9455258049258</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>28.37213819555373</v>
+        <v>45.26863954694687</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>28.37213818568781</v>
+        <v>8.061335129821863</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>28.3721382200983</v>
+        <v>23.92597322887011</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>28.37213823251777</v>
+        <v>33.31359807680329</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>28.37213818304328</v>
+        <v>5.34114548484018</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>28.37213821969024</v>
+        <v>24.26490971289548</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>28.3721382332293</v>
+        <v>34.99991093345088</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>28.37213819167761</v>
+        <v>2.04988657436061</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>28.37213823197721</v>
+        <v>34.81532571324139</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>28.37213823165197</v>
+        <v>29.5916310048074</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>28.37213822602442</v>
+        <v>18.36469428617414</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>28.37213824255036</v>
+        <v>30.99858981694251</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>28.37213824684746</v>
+        <v>34.49616957242387</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>28.3721381958173</v>
+        <v>6.114585211004336</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.37213823396985</v>
+        <v>19.3895525648645</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>28.37213824455786</v>
+        <v>26.18453398333053</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>28.37213820708387</v>
+        <v>15.26553812289043</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>28.37213824166947</v>
+        <v>23.25749567567812</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>28.37213825369358</v>
+        <v>32.39127595765044</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>28.37213820429641</v>
+        <v>0.8657946593794001</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>28.37213824130002</v>
+        <v>13.3968487577405</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>28.37213825414532</v>
+        <v>18.51255572941745</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>28.37213821419671</v>
+        <v>-1.013030494513124</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>28.37213825471139</v>
+        <v>26.07236667547016</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>28.37213826629709</v>
+        <v>39.40018715226536</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>28.372138260248</v>
+        <v>27.59531243927965</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>28.37213827587846</v>
+        <v>40.39767905534113</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>28.3721382795619</v>
+        <v>47.46527391129902</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>28.37213822828025</v>
+        <v>5.926276225894757</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>28.37213826594373</v>
+        <v>23.61955436581027</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>28.37213827713167</v>
+        <v>35.91584954181143</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>28.37213825497371</v>
+        <v>53.89653673920533</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>28.37213824859827</v>
+        <v>47.4562883951902</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>28.37213826514044</v>
+        <v>57.17849383740712</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>28.37213826952724</v>
+        <v>59.99428493334069</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>28.37213821605686</v>
+        <v>21.06354358323961</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>28.37213825663316</v>
+        <v>52.94520521241792</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>28.37213826688241</v>
+        <v>57.11791977030433</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>28.37213822666641</v>
+        <v>22.56457628403991</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>28.37213826344459</v>
+        <v>40.24076211160771</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>28.37213827532789</v>
+        <v>45.46972156770174</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>28.37213822563071</v>
+        <v>11.83036905497141</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>28.37213826535992</v>
+        <v>41.84215722684615</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>28.37213827830915</v>
+        <v>44.81810909540248</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>28.37213823688868</v>
+        <v>13.19507485906173</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>28.37213828003995</v>
+        <v>58.1412289222048</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>28.37213829150488</v>
+        <v>67.40607886597913</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>28.37213828463796</v>
+        <v>69.74198009376538</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>28.37213830030668</v>
+        <v>76.80697559214624</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>28.37213830401085</v>
+        <v>82.11928894001854</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>28.37213825043955</v>
+        <v>29.94626087166592</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>28.37213829045533</v>
+        <v>69.47249607394585</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>28.37213830123399</v>
+        <v>75.77643819247933</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>28.37213825809018</v>
+        <v>55.70205945952256</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>28.37213825149357</v>
+        <v>42.39737752032408</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>28.37213826780917</v>
+        <v>50.55360747179927</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>28.37213827223805</v>
+        <v>58.05100598602633</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>28.37213821883803</v>
+        <v>13.42124032389049</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>28.37213825953801</v>
+        <v>48.86230677721537</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>28.37213826963345</v>
+        <v>55.59445621616506</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>28.37213822936323</v>
+        <v>17.20118647399384</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>28.37213826617355</v>
+        <v>36.45049198436826</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>28.37213827795986</v>
+        <v>44.02250238703573</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>28.37213822891669</v>
+        <v>9.441053319975708</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>28.37213826868108</v>
+        <v>39.7983433461053</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>28.37213828160537</v>
+        <v>45.74893013687585</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>28.37213824021935</v>
+        <v>11.35714735647386</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>28.37213828338676</v>
+        <v>58.01156310821005</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>28.37213829475904</v>
+        <v>70.34113403911944</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>28.37213828768372</v>
+        <v>69.21992306229603</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>28.37213830315368</v>
+        <v>74.89780158088949</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>28.37213830686802</v>
+        <v>83.75636319804745</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>28.37213825331441</v>
+        <v>22.76812421966176</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>28.3721382934945</v>
+        <v>67.6861022789999</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>28.37213830409931</v>
+        <v>76.97696270677837</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>28.37213824392197</v>
+        <v>50.62242688806522</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>28.37213823735385</v>
+        <v>28.05913486733316</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>28.37213825356143</v>
+        <v>36.3824368008973</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>28.37213825807708</v>
+        <v>47.19118747361429</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>28.37213820616952</v>
+        <v>8.475492041416363</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>28.372138245641</v>
+        <v>41.18270271804425</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>28.37213825601577</v>
+        <v>51.71188884733591</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>28.37213821767669</v>
+        <v>14.40358982040773</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>28.37213825315128</v>
+        <v>33.31697996986318</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>28.37213826520345</v>
+        <v>44.79628871211938</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>28.37213821671178</v>
+        <v>9.171691688452864</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>28.37213825478376</v>
+        <v>36.05709057682493</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>28.37213826792132</v>
+        <v>46.2443026684829</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>28.37213822711998</v>
+        <v>7.893565647673203</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>28.37213826868772</v>
+        <v>51.59465817300645</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>28.37213828028976</v>
+        <v>68.12763649046504</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>28.37213827331867</v>
+        <v>56.46399003791878</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>28.37213828869735</v>
+        <v>65.15124873154838</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>28.37213829249082</v>
+        <v>78.30840424542909</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>28.37213824015233</v>
+        <v>15.99044395791027</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>28.37213827921073</v>
+        <v>57.85404433589441</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>28.372138290144</v>
+        <v>73.50063174253663</v>
       </c>
     </row>
   </sheetData>
